--- a/Sezon/Bundesliga2025_26.xlsx
+++ b/Sezon/Bundesliga2025_26.xlsx
@@ -511,7 +511,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="n">
+        <v>7</v>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Bayern München</t>
@@ -522,9 +524,17 @@
           <t>Borussia Dortmund</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
       <c r="G2" t="n">
         <v>98.21913235629999</v>
       </c>
@@ -546,8 +556,12 @@
       <c r="M2" t="n">
         <v>0.6652116444602139</v>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -565,25 +579,25 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>92.0283099807</v>
+        <v>92.0321311144</v>
       </c>
       <c r="H3" t="n">
-        <v>98.21913235629999</v>
+        <v>98.21962491559999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2569888190176241</v>
+        <v>0.2570358262414414</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3678075052166447</v>
+        <v>0.367691867446054</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3752036757657312</v>
+        <v>0.3752723063125045</v>
       </c>
       <c r="L3" t="n">
-        <v>1.146170132818603</v>
+        <v>1.146379785036829</v>
       </c>
       <c r="M3" t="n">
-        <v>1.478626191415665</v>
+        <v>1.478347908650667</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -657,25 +671,25 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>90.8923617863</v>
+        <v>90.8970875556</v>
       </c>
       <c r="H5" t="n">
-        <v>98.21913235629999</v>
+        <v>98.21962491559999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2407117986681423</v>
+        <v>0.2407738163888894</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4078489752763698</v>
+        <v>0.4076964116833321</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3514392260554878</v>
+        <v>0.3515297719277785</v>
       </c>
       <c r="L5" t="n">
-        <v>1.073574622059915</v>
+        <v>1.073851221094447</v>
       </c>
       <c r="M5" t="n">
-        <v>1.574986151884597</v>
+        <v>1.574619006977775</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -749,25 +763,25 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>88.57476124</v>
+        <v>88.5798321115</v>
       </c>
       <c r="H7" t="n">
-        <v>98.21913235629999</v>
+        <v>98.21962491559999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2061517890501706</v>
+        <v>0.2062211872850935</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4928665989365803</v>
+        <v>0.4926958792786701</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3009816120132491</v>
+        <v>0.3010829334362364</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9194369791637609</v>
+        <v>0.9197464952915169</v>
       </c>
       <c r="M7" t="n">
-        <v>1.77958140882299</v>
+        <v>1.779170571272247</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -894,25 +908,25 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>98.21913235629999</v>
+        <v>98.21962491559999</v>
       </c>
       <c r="H10" t="n">
-        <v>86.9661452472</v>
+        <v>86.97233146000001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7805133480048562</v>
+        <v>0.7803744568036356</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08922221625818856</v>
+        <v>0.0892786760960831</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1302644357369553</v>
+        <v>0.1303468671002813</v>
       </c>
       <c r="L10" t="n">
-        <v>2.471804479751524</v>
+        <v>2.471470237511188</v>
       </c>
       <c r="M10" t="n">
-        <v>0.397931084511521</v>
+        <v>0.3981828953885307</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -933,25 +947,25 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>86.9661452472</v>
+        <v>86.97233146000001</v>
       </c>
       <c r="H11" t="n">
-        <v>98.21913235629999</v>
+        <v>98.21962491559999</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1819425364489569</v>
+        <v>0.1820278450802585</v>
       </c>
       <c r="J11" t="n">
-        <v>0.552421360335566</v>
+        <v>0.5522115011025639</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2656361032154771</v>
+        <v>0.2657606538171775</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8114637125623478</v>
+        <v>0.8118441890579531</v>
       </c>
       <c r="M11" t="n">
-        <v>1.922900184222175</v>
+        <v>1.922395157124869</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -972,25 +986,25 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>98.21913235629999</v>
+        <v>98.21962491559999</v>
       </c>
       <c r="H12" t="n">
-        <v>85.5554294686</v>
+        <v>85.5622657941</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8130864529658907</v>
+        <v>0.8129491124929107</v>
       </c>
       <c r="J12" t="n">
-        <v>0.07598111668053222</v>
+        <v>0.07603694614109324</v>
       </c>
       <c r="K12" t="n">
-        <v>0.110932430353577</v>
+        <v>0.1110139413659961</v>
       </c>
       <c r="L12" t="n">
-        <v>2.550191789251249</v>
+        <v>2.549861278844728</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3388757803951737</v>
+        <v>0.3391247797892759</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1011,25 +1025,25 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>85.5554294686</v>
+        <v>85.5622657941</v>
       </c>
       <c r="H13" t="n">
-        <v>98.21913235629999</v>
+        <v>98.21962491559999</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1611807201895135</v>
+        <v>0.1612726818952991</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6034954283337965</v>
+        <v>0.6032692025375642</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2353238514766898</v>
+        <v>0.2354581155671366</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7188660120452304</v>
+        <v>0.7192761612530338</v>
       </c>
       <c r="M13" t="n">
-        <v>2.045810136478079</v>
+        <v>2.045265723179829</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1103,25 +1117,25 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>84.3517729182</v>
+        <v>84.3591607421</v>
       </c>
       <c r="H15" t="n">
-        <v>98.21913235629999</v>
+        <v>98.21962491559999</v>
       </c>
       <c r="I15" t="n">
-        <v>0.144146343192245</v>
+        <v>0.1442419249990517</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6453999957470774</v>
+        <v>0.6451648645023327</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2104536610606777</v>
+        <v>0.2105932104986155</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6428926906374125</v>
+        <v>0.6433189854957706</v>
       </c>
       <c r="M15" t="n">
-        <v>2.14665364830191</v>
+        <v>2.146087804005614</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1142,31 +1156,33 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>98.21913235629999</v>
+        <v>98.21962491559999</v>
       </c>
       <c r="H16" t="n">
-        <v>84.1070818697</v>
+        <v>84.11421312580001</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8425198822568595</v>
+        <v>0.8423943831852808</v>
       </c>
       <c r="J16" t="n">
-        <v>0.06401630802566688</v>
+        <v>0.06406732390842242</v>
       </c>
       <c r="K16" t="n">
-        <v>0.09346380971747364</v>
+        <v>0.09353829290629673</v>
       </c>
       <c r="L16" t="n">
-        <v>2.621023456488052</v>
+        <v>2.620721442462139</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2855127337944743</v>
+        <v>0.285740264631564</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Hoffenheim</t>
@@ -1177,9 +1193,17 @@
           <t>Bayern München</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
       <c r="G17" t="n">
         <v>84.1070818697</v>
       </c>
@@ -1201,8 +1225,12 @@
       <c r="M17" t="n">
         <v>2.166568199090487</v>
       </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -1220,25 +1248,25 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>98.21913235629999</v>
+        <v>98.21962491559999</v>
       </c>
       <c r="H18" t="n">
-        <v>83.2358186829</v>
+        <v>83.24334700990001</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8583392395346814</v>
+        <v>0.8582173237063802</v>
       </c>
       <c r="J18" t="n">
-        <v>0.05758567498590191</v>
+        <v>0.0576352342656991</v>
       </c>
       <c r="K18" t="n">
-        <v>0.08407508547941678</v>
+        <v>0.0841474420279207</v>
       </c>
       <c r="L18" t="n">
-        <v>2.659092804083461</v>
+        <v>2.658799413147061</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2568321104371225</v>
+        <v>0.257053144825018</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1259,25 +1287,25 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>83.2358186829</v>
+        <v>83.24334700990001</v>
       </c>
       <c r="H19" t="n">
-        <v>98.21913235629999</v>
+        <v>98.21962491559999</v>
       </c>
       <c r="I19" t="n">
-        <v>0.129118420721533</v>
+        <v>0.1292107851785133</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6823686850250288</v>
+        <v>0.6821414684608574</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1885128942534382</v>
+        <v>0.1886477463606294</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5758681564180371</v>
+        <v>0.5762801018961692</v>
       </c>
       <c r="M19" t="n">
-        <v>2.235618949328524</v>
+        <v>2.235072151743202</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1298,25 +1326,25 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>98.21913235629999</v>
+        <v>98.21962491559999</v>
       </c>
       <c r="H20" t="n">
-        <v>81.8021821273</v>
+        <v>81.81072821559999</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8814642078702921</v>
+        <v>0.8813442389547578</v>
       </c>
       <c r="J20" t="n">
-        <v>0.04818528135353975</v>
+        <v>0.04823404920538298</v>
       </c>
       <c r="K20" t="n">
-        <v>0.07035051077616802</v>
+        <v>0.07042171183985914</v>
       </c>
       <c r="L20" t="n">
-        <v>2.714743134387045</v>
+        <v>2.714454428704133</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2149063548367873</v>
+        <v>0.215123859456008</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1443,25 +1471,25 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="H23" t="n">
-        <v>98.21913235629999</v>
+        <v>98.21962491559999</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1093314659740029</v>
+        <v>0.1094281544874463</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7310445937039529</v>
+        <v>0.7308067399608822</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1596239403220442</v>
+        <v>0.1597651055516716</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4876183382440528</v>
+        <v>0.4880495690140104</v>
       </c>
       <c r="M23" t="n">
-        <v>2.352757721433903</v>
+        <v>2.352185325434318</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -1482,25 +1510,25 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
-        <v>98.21913235629999</v>
+        <v>98.21962491559999</v>
       </c>
       <c r="H24" t="n">
-        <v>81.0320842883</v>
+        <v>81.04097752529999</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8924853916916675</v>
+        <v>0.8923704522208348</v>
       </c>
       <c r="J24" t="n">
-        <v>0.04370512532859041</v>
+        <v>0.04375184869071757</v>
       </c>
       <c r="K24" t="n">
-        <v>0.063809482979742</v>
+        <v>0.06387769908844766</v>
       </c>
       <c r="L24" t="n">
-        <v>2.741265658054745</v>
+        <v>2.740989055750952</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1949248589655132</v>
+        <v>0.1951332451606004</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -1521,25 +1549,25 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>81.0320842883</v>
+        <v>81.04097752529999</v>
       </c>
       <c r="H25" t="n">
-        <v>98.21913235629999</v>
+        <v>98.21962491559999</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1021238947593625</v>
+        <v>0.1022195793175619</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7487752188919682</v>
+        <v>0.7485398348787977</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1491008863486693</v>
+        <v>0.1492405858036404</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4554725706267568</v>
+        <v>0.4558993237563262</v>
       </c>
       <c r="M25" t="n">
-        <v>2.395426543024574</v>
+        <v>2.394860090440034</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -1560,25 +1588,25 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>98.21913235629999</v>
+        <v>98.21962491559999</v>
       </c>
       <c r="H26" t="n">
-        <v>80.77975022850001</v>
+        <v>80.7883892947</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8958957391882904</v>
+        <v>0.895787409533542</v>
       </c>
       <c r="J26" t="n">
-        <v>0.04231880520801207</v>
+        <v>0.04236284165303175</v>
       </c>
       <c r="K26" t="n">
-        <v>0.06178545560369764</v>
+        <v>0.06184974881342634</v>
       </c>
       <c r="L26" t="n">
-        <v>2.749472673168569</v>
+        <v>2.749211977414052</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1887418712277339</v>
+        <v>0.1889382737725216</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -1599,25 +1627,25 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
-        <v>80.77975022850001</v>
+        <v>80.7883892947</v>
       </c>
       <c r="H27" t="n">
-        <v>98.21913235629999</v>
+        <v>98.21962491559999</v>
       </c>
       <c r="I27" t="n">
-        <v>0.09928396274976084</v>
+        <v>0.09937501990145564</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7557614516355884</v>
+        <v>0.7555374510424191</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1449545856146508</v>
+        <v>0.1450875290561253</v>
       </c>
       <c r="L27" t="n">
-        <v>0.4428064738639333</v>
+        <v>0.4432125887604922</v>
       </c>
       <c r="M27" t="n">
-        <v>2.412238940521416</v>
+        <v>2.411699882183383</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -1638,48 +1666,48 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
-        <v>98.21913235629999</v>
+        <v>98.21962491559999</v>
       </c>
       <c r="H28" t="n">
-        <v>80.33733306649999</v>
+        <v>80.3461708422</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9016446541663011</v>
+        <v>0.9015391295310955</v>
       </c>
       <c r="J28" t="n">
-        <v>0.03998184789987761</v>
+        <v>0.04002474409305063</v>
       </c>
       <c r="K28" t="n">
-        <v>0.05837349793382132</v>
+        <v>0.05843612637585392</v>
       </c>
       <c r="L28" t="n">
-        <v>2.763307460432725</v>
+        <v>2.76305351496914</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1783190416334542</v>
+        <v>0.1785103586550058</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
         <v>3</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Augsburg</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Bayern München</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" t="n">
-        <v>5</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1715,7 +1743,9 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Bayern München</t>
@@ -1726,9 +1756,17 @@
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
       <c r="G30" t="n">
         <v>98.21913235629999</v>
       </c>
@@ -1750,8 +1788,12 @@
       <c r="M30" t="n">
         <v>0.1606311246403063</v>
       </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+      <c r="N30" t="n">
+        <v>3</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -1769,25 +1811,25 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>79.5307513188</v>
+        <v>79.53995027240001</v>
       </c>
       <c r="H31" t="n">
-        <v>98.21913235629999</v>
+        <v>98.21962491559999</v>
       </c>
       <c r="I31" t="n">
-        <v>0.08602724278766508</v>
+        <v>0.08611519518076123</v>
       </c>
       <c r="J31" t="n">
-        <v>0.788372982742344</v>
+        <v>0.7881566198553274</v>
       </c>
       <c r="K31" t="n">
-        <v>0.125599774469991</v>
+        <v>0.1257281849639114</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3836815028329862</v>
+        <v>0.3840737705061951</v>
       </c>
       <c r="M31" t="n">
-        <v>2.490718722697023</v>
+        <v>2.490198044529893</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -1808,25 +1850,25 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>98.21913235629999</v>
+        <v>98.21962491559999</v>
       </c>
       <c r="H32" t="n">
-        <v>78.0501765163</v>
+        <v>78.0604017979</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9270592654873555</v>
+        <v>0.9269653815640151</v>
       </c>
       <c r="J32" t="n">
-        <v>0.02965070508644085</v>
+        <v>0.02968886928292069</v>
       </c>
       <c r="K32" t="n">
-        <v>0.04329002942620364</v>
+        <v>0.04334574915306421</v>
       </c>
       <c r="L32" t="n">
-        <v>2.82446782588827</v>
+        <v>2.824241893845109</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1322421446855262</v>
+        <v>0.1324123570018263</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -1847,25 +1889,25 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
-        <v>78.0501765163</v>
+        <v>78.0604017979</v>
       </c>
       <c r="H33" t="n">
-        <v>98.21913235629999</v>
+        <v>98.21962491559999</v>
       </c>
       <c r="I33" t="n">
-        <v>0.07205131461515553</v>
+        <v>0.07213724148621217</v>
       </c>
       <c r="J33" t="n">
-        <v>0.8227537660467173</v>
+        <v>0.8225423859439183</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1051949193381271</v>
+        <v>0.1053203725698697</v>
       </c>
       <c r="L33" t="n">
-        <v>0.3213488631835937</v>
+        <v>0.3217320970285062</v>
       </c>
       <c r="M33" t="n">
-        <v>2.573456217478279</v>
+        <v>2.572947530401625</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -1886,25 +1928,25 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
-        <v>98.21913235629999</v>
+        <v>98.21962491559999</v>
       </c>
       <c r="H34" t="n">
-        <v>77.91100207540001</v>
+        <v>77.9209220102</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9283923354475246</v>
+        <v>0.9283029379663749</v>
       </c>
       <c r="J34" t="n">
-        <v>0.02910880672864853</v>
+        <v>0.02914514716814026</v>
       </c>
       <c r="K34" t="n">
-        <v>0.04249885782382685</v>
+        <v>0.04255191486548478</v>
       </c>
       <c r="L34" t="n">
-        <v>2.827675864166401</v>
+        <v>2.827460728764609</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1298252780097724</v>
+        <v>0.1299873563699055</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -1925,25 +1967,25 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>77.91100207540001</v>
+        <v>77.9209220102</v>
       </c>
       <c r="H35" t="n">
-        <v>98.21913235629999</v>
+        <v>98.21962491559999</v>
       </c>
       <c r="I35" t="n">
-        <v>0.07083372066023881</v>
+        <v>0.07091584740602475</v>
       </c>
       <c r="J35" t="n">
-        <v>0.8257490471758127</v>
+        <v>0.825547015381179</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1034172321639486</v>
+        <v>0.1035371372127961</v>
       </c>
       <c r="L35" t="n">
-        <v>0.315918394144665</v>
+        <v>0.3162846794308704</v>
       </c>
       <c r="M35" t="n">
-        <v>2.580664373691387</v>
+        <v>2.580178183356333</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -1964,25 +2006,25 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
-        <v>92.0283099807</v>
+        <v>92.0321311144</v>
       </c>
       <c r="H36" t="n">
-        <v>90.8923617863</v>
+        <v>90.8970875556</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4471958891587271</v>
+        <v>0.447169339114221</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2247171182281597</v>
+        <v>0.2247279109291785</v>
       </c>
       <c r="K36" t="n">
-        <v>0.3280869926131132</v>
+        <v>0.3281027499566006</v>
       </c>
       <c r="L36" t="n">
-        <v>1.669674660089294</v>
+        <v>1.669610767299264</v>
       </c>
       <c r="M36" t="n">
-        <v>1.002238347297592</v>
+        <v>1.002286482744136</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2003,25 +2045,25 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>90.8923617863</v>
+        <v>90.8970875556</v>
       </c>
       <c r="H37" t="n">
-        <v>92.0283099807</v>
+        <v>92.0321311144</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3674772586984296</v>
+        <v>0.367513575067614</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2571230655697441</v>
+        <v>0.2571083028180431</v>
       </c>
       <c r="K37" t="n">
-        <v>0.3753996757318264</v>
+        <v>0.3753781221143429</v>
       </c>
       <c r="L37" t="n">
-        <v>1.477831451827115</v>
+        <v>1.477918847317185</v>
       </c>
       <c r="M37" t="n">
-        <v>1.146768872441059</v>
+        <v>1.146703030568472</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2095,25 +2137,25 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
-        <v>88.57476124</v>
+        <v>88.5798321115</v>
       </c>
       <c r="H39" t="n">
-        <v>92.0283099807</v>
+        <v>92.0321311144</v>
       </c>
       <c r="I39" t="n">
-        <v>0.2916499805117519</v>
+        <v>0.2916928519904406</v>
       </c>
       <c r="J39" t="n">
-        <v>0.2879471623935968</v>
+        <v>0.2879297349632355</v>
       </c>
       <c r="K39" t="n">
-        <v>0.4204028570946514</v>
+        <v>0.4203774130463238</v>
       </c>
       <c r="L39" t="n">
-        <v>1.295352798629907</v>
+        <v>1.295455969017646</v>
       </c>
       <c r="M39" t="n">
-        <v>1.284244344275442</v>
+        <v>1.28416661793603</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -2134,25 +2176,25 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
-        <v>92.0283099807</v>
+        <v>92.0321311144</v>
       </c>
       <c r="H40" t="n">
-        <v>87.6434684086</v>
+        <v>87.6497100763</v>
       </c>
       <c r="I40" t="n">
-        <v>0.5626983951242983</v>
+        <v>0.5626186781233031</v>
       </c>
       <c r="J40" t="n">
-        <v>0.177764880030773</v>
+        <v>0.1777972853157304</v>
       </c>
       <c r="K40" t="n">
-        <v>0.2595367248449286</v>
+        <v>0.2595840365609664</v>
       </c>
       <c r="L40" t="n">
-        <v>1.947631910217824</v>
+        <v>1.947440070930876</v>
       </c>
       <c r="M40" t="n">
-        <v>0.7928313649372477</v>
+        <v>0.7929758925081577</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -2226,25 +2268,25 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
-        <v>92.0283099807</v>
+        <v>92.0321311144</v>
       </c>
       <c r="H42" t="n">
-        <v>86.9661452472</v>
+        <v>86.97233146000001</v>
       </c>
       <c r="I42" t="n">
-        <v>0.5863462217264975</v>
+        <v>0.586269567527778</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1681519423876026</v>
+        <v>0.1681831026309845</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2455018358858998</v>
+        <v>0.2455473298412374</v>
       </c>
       <c r="L42" t="n">
-        <v>2.004540501065392</v>
+        <v>2.004356032424571</v>
       </c>
       <c r="M42" t="n">
-        <v>0.7499576630487076</v>
+        <v>0.750096637734191</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -2265,25 +2307,25 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
-        <v>86.9661452472</v>
+        <v>86.97233146000001</v>
       </c>
       <c r="H43" t="n">
-        <v>92.0283099807</v>
+        <v>92.0321311144</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2692625220217297</v>
+        <v>0.2692964480588547</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3376141958265448</v>
+        <v>0.3375307377752175</v>
       </c>
       <c r="K43" t="n">
-        <v>0.3931232821517254</v>
+        <v>0.3931728141659278</v>
       </c>
       <c r="L43" t="n">
-        <v>1.200910848216915</v>
+        <v>1.201062158342492</v>
       </c>
       <c r="M43" t="n">
-        <v>1.40596586963136</v>
+        <v>1.40576502749158</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -2357,25 +2399,25 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
-        <v>85.5554294686</v>
+        <v>85.5622657941</v>
       </c>
       <c r="H45" t="n">
-        <v>92.0283099807</v>
+        <v>92.0321311144</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2496122577222671</v>
+        <v>0.2496575158867136</v>
       </c>
       <c r="J45" t="n">
-        <v>0.385953846003223</v>
+        <v>0.3858425109186844</v>
       </c>
       <c r="K45" t="n">
-        <v>0.3644338962745099</v>
+        <v>0.3644999731946019</v>
       </c>
       <c r="L45" t="n">
-        <v>1.113270669441311</v>
+        <v>1.113472520854743</v>
       </c>
       <c r="M45" t="n">
-        <v>1.522295434284179</v>
+        <v>1.522027505950655</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -2396,25 +2438,25 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
-        <v>92.0283099807</v>
+        <v>92.0321311144</v>
       </c>
       <c r="H46" t="n">
-        <v>84.3517729182</v>
+        <v>84.3591607421</v>
       </c>
       <c r="I46" t="n">
-        <v>0.6731271223361366</v>
+        <v>0.6730198078431813</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1328751535218957</v>
+        <v>0.1329187772995198</v>
       </c>
       <c r="K46" t="n">
-        <v>0.1939977241419677</v>
+        <v>0.1940614148572989</v>
       </c>
       <c r="L46" t="n">
-        <v>2.213379091150377</v>
+        <v>2.213120838386843</v>
       </c>
       <c r="M46" t="n">
-        <v>0.5926231847076546</v>
+        <v>0.5928177467558584</v>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
@@ -2435,25 +2477,25 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
-        <v>84.3517729182</v>
+        <v>84.3591607421</v>
       </c>
       <c r="H47" t="n">
-        <v>92.0283099807</v>
+        <v>92.0321311144</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2320730968560512</v>
+        <v>0.2321280387429906</v>
       </c>
       <c r="J47" t="n">
-        <v>0.429100181734114</v>
+        <v>0.428965024692243</v>
       </c>
       <c r="K47" t="n">
-        <v>0.3388267214098348</v>
+        <v>0.3389069365647663</v>
       </c>
       <c r="L47" t="n">
-        <v>1.035046011977989</v>
+        <v>1.035291052793738</v>
       </c>
       <c r="M47" t="n">
-        <v>1.626127266612177</v>
+        <v>1.625802010641495</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -2474,25 +2516,25 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="n">
-        <v>92.0283099807</v>
+        <v>92.0321311144</v>
       </c>
       <c r="H48" t="n">
-        <v>84.1070818697</v>
+        <v>84.11421312580001</v>
       </c>
       <c r="I48" t="n">
-        <v>0.6807713166633811</v>
+        <v>0.6806732879702123</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1297677574539101</v>
+        <v>0.1298076065161739</v>
       </c>
       <c r="K48" t="n">
-        <v>0.1894609258827088</v>
+        <v>0.1895191055136138</v>
       </c>
       <c r="L48" t="n">
-        <v>2.231774875872852</v>
+        <v>2.231538969424251</v>
       </c>
       <c r="M48" t="n">
-        <v>0.5787641982444391</v>
+        <v>0.5789419250621355</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -2513,25 +2555,25 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
-        <v>84.1070818697</v>
+        <v>84.11421312580001</v>
       </c>
       <c r="H49" t="n">
-        <v>92.0283099807</v>
+        <v>92.0321311144</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2284439063586421</v>
+        <v>0.2284953004837897</v>
       </c>
       <c r="J49" t="n">
-        <v>0.4380279903577405</v>
+        <v>0.4379015608098772</v>
       </c>
       <c r="K49" t="n">
-        <v>0.3335281032836174</v>
+        <v>0.333603138706333</v>
       </c>
       <c r="L49" t="n">
-        <v>1.018859822359544</v>
+        <v>1.019089040157702</v>
       </c>
       <c r="M49" t="n">
-        <v>1.647612074356839</v>
+        <v>1.647307821135965</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -2552,25 +2594,25 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>92.0283099807</v>
+        <v>92.0321311144</v>
       </c>
       <c r="H50" t="n">
-        <v>83.2358186829</v>
+        <v>83.24334700990001</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7071919580813439</v>
+        <v>0.7070868035729624</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1190276593165268</v>
+        <v>0.1190704050516413</v>
       </c>
       <c r="K50" t="n">
-        <v>0.1737803826021292</v>
+        <v>0.1738427913753963</v>
       </c>
       <c r="L50" t="n">
-        <v>2.295356256846161</v>
+        <v>2.295103202094284</v>
       </c>
       <c r="M50" t="n">
-        <v>0.5308633605517097</v>
+        <v>0.5310540065303203</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -2697,25 +2739,25 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
-        <v>81.8021821273</v>
+        <v>81.81072821559999</v>
       </c>
       <c r="H53" t="n">
-        <v>92.0283099807</v>
+        <v>92.0321311144</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1937799335447657</v>
+        <v>0.1938533348084231</v>
       </c>
       <c r="J53" t="n">
-        <v>0.5233013634798762</v>
+        <v>0.5231207963712793</v>
       </c>
       <c r="K53" t="n">
-        <v>0.282918702975358</v>
+        <v>0.2830258688202977</v>
       </c>
       <c r="L53" t="n">
-        <v>0.8642585036096553</v>
+        <v>0.8645858732455669</v>
       </c>
       <c r="M53" t="n">
-        <v>1.852822793414987</v>
+        <v>1.852388257934136</v>
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
@@ -2736,25 +2778,25 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
-        <v>92.0283099807</v>
+        <v>92.0321311144</v>
       </c>
       <c r="H54" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7517536171664467</v>
+        <v>0.7516299013533156</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1009131637534769</v>
+        <v>0.1009634547344245</v>
       </c>
       <c r="K54" t="n">
-        <v>0.1473332190800763</v>
+        <v>0.1474066439122598</v>
       </c>
       <c r="L54" t="n">
-        <v>2.402594070579417</v>
+        <v>2.402296347972206</v>
       </c>
       <c r="M54" t="n">
-        <v>0.450072710340507</v>
+        <v>0.4502970081155333</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -2775,25 +2817,25 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="H55" t="n">
-        <v>92.0283099807</v>
+        <v>92.0321311144</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1915246584593403</v>
+        <v>0.1915989924546625</v>
       </c>
       <c r="J55" t="n">
-        <v>0.5288493401900228</v>
+        <v>0.5286664785615303</v>
       </c>
       <c r="K55" t="n">
-        <v>0.2796260013506369</v>
+        <v>0.2797345289838073</v>
       </c>
       <c r="L55" t="n">
-        <v>0.8541999767286577</v>
+        <v>0.854531506347795</v>
       </c>
       <c r="M55" t="n">
-        <v>1.866174021920705</v>
+        <v>1.865733964668398</v>
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
@@ -2867,25 +2909,25 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="n">
-        <v>81.0320842883</v>
+        <v>81.04097752529999</v>
       </c>
       <c r="H57" t="n">
-        <v>92.0283099807</v>
+        <v>92.0321311144</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1822211154293622</v>
+        <v>0.1822990761576018</v>
       </c>
       <c r="J57" t="n">
-        <v>0.5517360560437691</v>
+        <v>0.5515442726522995</v>
       </c>
       <c r="K57" t="n">
-        <v>0.2660428285268688</v>
+        <v>0.2661566511900986</v>
       </c>
       <c r="L57" t="n">
-        <v>0.8127061748149553</v>
+        <v>0.8130538796629041</v>
       </c>
       <c r="M57" t="n">
-        <v>1.921250996658176</v>
+        <v>1.920789469146997</v>
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -2905,14 +2947,14 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2937,10 +2979,10 @@
         <v>0.4092279040987195</v>
       </c>
       <c r="N58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3012,25 +3054,25 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
-        <v>92.0283099807</v>
+        <v>92.0321311144</v>
       </c>
       <c r="H60" t="n">
-        <v>80.33733306649999</v>
+        <v>80.3461708422</v>
       </c>
       <c r="I60" t="n">
-        <v>0.7851364360681541</v>
+        <v>0.7850191972827217</v>
       </c>
       <c r="J60" t="n">
-        <v>0.08734291216741703</v>
+        <v>0.08739057021027571</v>
       </c>
       <c r="K60" t="n">
-        <v>0.1275206517644289</v>
+        <v>0.1275902325070025</v>
       </c>
       <c r="L60" t="n">
-        <v>2.482929959968891</v>
+        <v>2.482647824355168</v>
       </c>
       <c r="M60" t="n">
-        <v>0.38954938826668</v>
+        <v>0.3897619431378296</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -3104,25 +3146,25 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="n">
-        <v>92.0283099807</v>
+        <v>92.0321311144</v>
       </c>
       <c r="H62" t="n">
-        <v>79.5307513188</v>
+        <v>79.53995027240001</v>
       </c>
       <c r="I62" t="n">
-        <v>0.8039362683906293</v>
+        <v>0.8038185881513263</v>
       </c>
       <c r="J62" t="n">
-        <v>0.07970070390624823</v>
+        <v>0.07974854140189985</v>
       </c>
       <c r="K62" t="n">
-        <v>0.1163630277031224</v>
+        <v>0.1164328704467738</v>
       </c>
       <c r="L62" t="n">
-        <v>2.52817183287501</v>
+        <v>2.527888634900753</v>
       </c>
       <c r="M62" t="n">
-        <v>0.3554651394218671</v>
+        <v>0.3556784946524734</v>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -3196,25 +3238,25 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="n">
-        <v>92.0283099807</v>
+        <v>92.0321311144</v>
       </c>
       <c r="H64" t="n">
-        <v>78.0501765163</v>
+        <v>78.0604017979</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8351521389504959</v>
+        <v>0.8350291541701274</v>
       </c>
       <c r="J64" t="n">
-        <v>0.06701132562987973</v>
+        <v>0.06706131944303764</v>
       </c>
       <c r="K64" t="n">
-        <v>0.09783653541962439</v>
+        <v>0.09790952638683496</v>
       </c>
       <c r="L64" t="n">
-        <v>2.603292952271112</v>
+        <v>2.602996988897217</v>
       </c>
       <c r="M64" t="n">
-        <v>0.2988705123092636</v>
+        <v>0.2990934847159479</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -3288,31 +3330,33 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
-        <v>92.0283099807</v>
+        <v>92.0321311144</v>
       </c>
       <c r="H66" t="n">
-        <v>77.91100207540001</v>
+        <v>77.9209220102</v>
       </c>
       <c r="I66" t="n">
-        <v>0.8378711553015882</v>
+        <v>0.8377557340464216</v>
       </c>
       <c r="J66" t="n">
-        <v>0.06590603443024873</v>
+        <v>0.065952953639666</v>
       </c>
       <c r="K66" t="n">
-        <v>0.09622281026816314</v>
+        <v>0.09629131231391236</v>
       </c>
       <c r="L66" t="n">
-        <v>2.609836276172928</v>
+        <v>2.609558514453177</v>
       </c>
       <c r="M66" t="n">
-        <v>0.2939409135589093</v>
+        <v>0.2941501732329104</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr"/>
+      <c r="A67" t="n">
+        <v>3</v>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Heidenheim</t>
@@ -3323,9 +3367,17 @@
           <t>Borussia Dortmund</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
       <c r="G67" t="n">
         <v>77.91100207540001</v>
       </c>
@@ -3347,8 +3399,12 @@
       <c r="M67" t="n">
         <v>2.18615546318804</v>
       </c>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -3366,25 +3422,25 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="n">
-        <v>90.8923617863</v>
+        <v>90.8970875556</v>
       </c>
       <c r="H68" t="n">
-        <v>88.57476124</v>
+        <v>88.5798321115</v>
       </c>
       <c r="I68" t="n">
-        <v>0.4875798972149323</v>
+        <v>0.4875743266762488</v>
       </c>
       <c r="J68" t="n">
-        <v>0.2083008547906779</v>
+        <v>0.2083031192372972</v>
       </c>
       <c r="K68" t="n">
-        <v>0.3041192479943897</v>
+        <v>0.3041225540864539</v>
       </c>
       <c r="L68" t="n">
-        <v>1.766858939639187</v>
+        <v>1.766845534115201</v>
       </c>
       <c r="M68" t="n">
-        <v>0.9290218123664233</v>
+        <v>0.9290319117983455</v>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
@@ -3405,31 +3461,33 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="n">
-        <v>88.57476124</v>
+        <v>88.5798321115</v>
       </c>
       <c r="H69" t="n">
-        <v>90.8923617863</v>
+        <v>90.8970875556</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3262696764872161</v>
+        <v>0.3262868833362327</v>
       </c>
       <c r="J69" t="n">
-        <v>0.2738741152490992</v>
+        <v>0.2738671205950273</v>
       </c>
       <c r="K69" t="n">
-        <v>0.3998562082636848</v>
+        <v>0.3998459960687399</v>
       </c>
       <c r="L69" t="n">
-        <v>1.378665237725333</v>
+        <v>1.378706646077438</v>
       </c>
       <c r="M69" t="n">
-        <v>1.221478554010982</v>
+        <v>1.221447357853822</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr"/>
+      <c r="A70" t="n">
+        <v>3</v>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Bayer Leverkusen</t>
@@ -3440,9 +3498,17 @@
           <t>Eintracht Frankfurt</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+      <c r="D70" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
       <c r="G70" t="n">
         <v>90.8923617863</v>
       </c>
@@ -3464,8 +3530,12 @@
       <c r="M70" t="n">
         <v>0.8687468213536993</v>
       </c>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3536,25 +3606,25 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="n">
-        <v>90.8923617863</v>
+        <v>90.8970875556</v>
       </c>
       <c r="H72" t="n">
-        <v>86.9661452472</v>
+        <v>86.97233146000001</v>
       </c>
       <c r="I72" t="n">
-        <v>0.5449065802465159</v>
+        <v>0.5448615385578495</v>
       </c>
       <c r="J72" t="n">
-        <v>0.1849973251030423</v>
+        <v>0.1850156347325815</v>
       </c>
       <c r="K72" t="n">
-        <v>0.2700960946504417</v>
+        <v>0.2701228267095689</v>
       </c>
       <c r="L72" t="n">
-        <v>1.90481583538999</v>
+        <v>1.904707442383117</v>
       </c>
       <c r="M72" t="n">
-        <v>0.8250880699595685</v>
+        <v>0.8251697309073134</v>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -3575,25 +3645,25 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="n">
-        <v>86.9661452472</v>
+        <v>86.97233146000001</v>
       </c>
       <c r="H73" t="n">
-        <v>90.8923617863</v>
+        <v>90.8970875556</v>
       </c>
       <c r="I73" t="n">
-        <v>0.2836053136843504</v>
+        <v>0.2836262325611225</v>
       </c>
       <c r="J73" t="n">
-        <v>0.3023309283364981</v>
+        <v>0.3022794678996387</v>
       </c>
       <c r="K73" t="n">
-        <v>0.4140637579791516</v>
+        <v>0.4140942995392389</v>
       </c>
       <c r="L73" t="n">
-        <v>1.264879699032203</v>
+        <v>1.264972997222606</v>
       </c>
       <c r="M73" t="n">
-        <v>1.321056542988646</v>
+        <v>1.320932703238155</v>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -3667,25 +3737,25 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="n">
-        <v>85.5554294686</v>
+        <v>85.5622657941</v>
       </c>
       <c r="H75" t="n">
-        <v>90.8923617863</v>
+        <v>90.8970875556</v>
       </c>
       <c r="I75" t="n">
-        <v>0.2649288912764198</v>
+        <v>0.2649603136493009</v>
       </c>
       <c r="J75" t="n">
-        <v>0.3482749274600074</v>
+        <v>0.3481976284227197</v>
       </c>
       <c r="K75" t="n">
-        <v>0.3867961812635728</v>
+        <v>0.3868420579279793</v>
       </c>
       <c r="L75" t="n">
-        <v>1.181582855092832</v>
+        <v>1.181722998875882</v>
       </c>
       <c r="M75" t="n">
-        <v>1.431620963643595</v>
+        <v>1.431434943196138</v>
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
@@ -3706,25 +3776,25 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="n">
-        <v>90.8923617863</v>
+        <v>90.8970875556</v>
       </c>
       <c r="H76" t="n">
-        <v>84.3517729182</v>
+        <v>84.3591607421</v>
       </c>
       <c r="I76" t="n">
-        <v>0.6349688877075246</v>
+        <v>0.6348869972508003</v>
       </c>
       <c r="J76" t="n">
-        <v>0.1483866310132014</v>
+        <v>0.1484199198167479</v>
       </c>
       <c r="K76" t="n">
-        <v>0.216644481279274</v>
+        <v>0.2166930829324519</v>
       </c>
       <c r="L76" t="n">
-        <v>2.121551144401848</v>
+        <v>2.121354074684853</v>
       </c>
       <c r="M76" t="n">
-        <v>0.6618043743188784</v>
+        <v>0.6619528423826955</v>
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -3851,25 +3921,25 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="n">
-        <v>84.1070818697</v>
+        <v>84.11421312580001</v>
       </c>
       <c r="H79" t="n">
-        <v>90.8923617863</v>
+        <v>90.8970875556</v>
       </c>
       <c r="I79" t="n">
-        <v>0.2444857406075991</v>
+        <v>0.2445231955434252</v>
       </c>
       <c r="J79" t="n">
-        <v>0.3985650781053062</v>
+        <v>0.398472938963174</v>
       </c>
       <c r="K79" t="n">
-        <v>0.3569491812870947</v>
+        <v>0.3570038654934007</v>
       </c>
       <c r="L79" t="n">
-        <v>1.090406403109892</v>
+        <v>1.090573452123676</v>
       </c>
       <c r="M79" t="n">
-        <v>1.552644415603013</v>
+        <v>1.552422682382923</v>
       </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -3890,31 +3960,33 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="n">
-        <v>90.8923617863</v>
+        <v>90.8970875556</v>
       </c>
       <c r="H80" t="n">
-        <v>83.2358186829</v>
+        <v>83.24334700990001</v>
       </c>
       <c r="I80" t="n">
-        <v>0.6710671205478379</v>
+        <v>0.6709847010582198</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1337125526228301</v>
+        <v>0.1337460564803984</v>
       </c>
       <c r="K80" t="n">
-        <v>0.195220326829332</v>
+        <v>0.1952692424613817</v>
       </c>
       <c r="L80" t="n">
-        <v>2.208421688472846</v>
+        <v>2.208223345636041</v>
       </c>
       <c r="M80" t="n">
-        <v>0.5963579846978224</v>
+        <v>0.5965074119025769</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr"/>
+      <c r="A81" t="n">
+        <v>7</v>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Mainz 05</t>
@@ -3925,9 +3997,17 @@
           <t>Bayer Leverkusen</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>3</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
       <c r="G81" t="n">
         <v>83.2358186829</v>
       </c>
@@ -3949,8 +4029,12 @@
       <c r="M81" t="n">
         <v>1.628203279466662</v>
       </c>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -4021,25 +4105,25 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="n">
-        <v>81.8021821273</v>
+        <v>81.81072821559999</v>
       </c>
       <c r="H83" t="n">
-        <v>90.8923617863</v>
+        <v>90.8970875556</v>
       </c>
       <c r="I83" t="n">
-        <v>0.2102619845026914</v>
+        <v>0.2103223382910061</v>
       </c>
       <c r="J83" t="n">
-        <v>0.4827555181233791</v>
+        <v>0.4826070478041251</v>
       </c>
       <c r="K83" t="n">
-        <v>0.3069824973739294</v>
+        <v>0.3070706139048689</v>
       </c>
       <c r="L83" t="n">
-        <v>0.9377684508820037</v>
+        <v>0.9380376287778872</v>
       </c>
       <c r="M83" t="n">
-        <v>1.755249051744067</v>
+        <v>1.754891757317244</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -4060,25 +4144,25 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="n">
-        <v>90.8923617863</v>
+        <v>90.8970875556</v>
       </c>
       <c r="H84" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="I84" t="n">
-        <v>0.7189415599419573</v>
+        <v>0.7188347736272261</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1142513983975783</v>
+        <v>0.1142948074686072</v>
       </c>
       <c r="K84" t="n">
-        <v>0.1668070416604643</v>
+        <v>0.1668704189041665</v>
       </c>
       <c r="L84" t="n">
-        <v>2.323631721486336</v>
+        <v>2.323374739785845</v>
       </c>
       <c r="M84" t="n">
-        <v>0.5095612368531992</v>
+        <v>0.5097548413099882</v>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -4099,25 +4183,25 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="H85" t="n">
-        <v>90.8923617863</v>
+        <v>90.8970875556</v>
       </c>
       <c r="I85" t="n">
-        <v>0.2080024516516637</v>
+        <v>0.2080638648627163</v>
       </c>
       <c r="J85" t="n">
-        <v>0.4883139689369072</v>
+        <v>0.4881628924377179</v>
       </c>
       <c r="K85" t="n">
-        <v>0.303683579411429</v>
+        <v>0.3037732426995658</v>
       </c>
       <c r="L85" t="n">
-        <v>0.9276909343664201</v>
+        <v>0.9279648372877147</v>
       </c>
       <c r="M85" t="n">
-        <v>1.76862548622215</v>
+        <v>1.76826192001272</v>
       </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
@@ -4138,25 +4222,25 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="n">
-        <v>90.8923617863</v>
+        <v>90.8970875556</v>
       </c>
       <c r="H86" t="n">
-        <v>81.0320842883</v>
+        <v>81.04097752529999</v>
       </c>
       <c r="I86" t="n">
-        <v>0.7364958814289921</v>
+        <v>0.7363855674539552</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1071154953540683</v>
+        <v>0.1071603384333515</v>
       </c>
       <c r="K86" t="n">
-        <v>0.1563886232169396</v>
+        <v>0.1564540941126932</v>
       </c>
       <c r="L86" t="n">
-        <v>2.365876267503916</v>
+        <v>2.365610796474559</v>
       </c>
       <c r="M86" t="n">
-        <v>0.4777351092791444</v>
+        <v>0.4779351094127477</v>
       </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
@@ -4177,25 +4261,25 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="n">
-        <v>81.0320842883</v>
+        <v>81.04097752529999</v>
       </c>
       <c r="H87" t="n">
-        <v>90.8923617863</v>
+        <v>90.8970875556</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1986380652091047</v>
+        <v>0.1987036996352695</v>
       </c>
       <c r="J87" t="n">
-        <v>0.5113503595856027</v>
+        <v>0.5111888988972371</v>
       </c>
       <c r="K87" t="n">
-        <v>0.2900115752052927</v>
+        <v>0.2901074014674935</v>
       </c>
       <c r="L87" t="n">
-        <v>0.8859257708326067</v>
+        <v>0.8862185003733021</v>
       </c>
       <c r="M87" t="n">
-        <v>1.824062653962101</v>
+        <v>1.823674098159205</v>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -4216,25 +4300,25 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="n">
-        <v>90.8923617863</v>
+        <v>90.8970875556</v>
       </c>
       <c r="H88" t="n">
-        <v>80.77975022850001</v>
+        <v>80.7883892947</v>
       </c>
       <c r="I88" t="n">
-        <v>0.7434317716460034</v>
+        <v>0.7433302770542869</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1042960277861775</v>
+        <v>0.1043372857502899</v>
       </c>
       <c r="K88" t="n">
-        <v>0.1522722005678192</v>
+        <v>0.1523324371954233</v>
       </c>
       <c r="L88" t="n">
-        <v>2.382567515505829</v>
+        <v>2.382323268358284</v>
       </c>
       <c r="M88" t="n">
-        <v>0.4651602839263518</v>
+        <v>0.4653442944462931</v>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -4308,25 +4392,25 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="n">
-        <v>90.8923617863</v>
+        <v>90.8970875556</v>
       </c>
       <c r="H90" t="n">
-        <v>80.33733306649999</v>
+        <v>80.3461708422</v>
       </c>
       <c r="I90" t="n">
-        <v>0.7553005118387469</v>
+        <v>0.7551969183306008</v>
       </c>
       <c r="J90" t="n">
-        <v>0.09947133665091588</v>
+        <v>0.09951344783308913</v>
       </c>
       <c r="K90" t="n">
-        <v>0.1452281515103372</v>
+        <v>0.1452896338363101</v>
       </c>
       <c r="L90" t="n">
-        <v>2.411129687026578</v>
+        <v>2.410880388828113</v>
       </c>
       <c r="M90" t="n">
-        <v>0.4436421614630848</v>
+        <v>0.4438299773355775</v>
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
@@ -4347,25 +4431,25 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
-        <v>80.33733306649999</v>
+        <v>80.3461708422</v>
       </c>
       <c r="H91" t="n">
-        <v>90.8923617863</v>
+        <v>90.8970875556</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1881751612367118</v>
+        <v>0.1882396364292568</v>
       </c>
       <c r="J91" t="n">
-        <v>0.537089103357689</v>
+        <v>0.5369304943840282</v>
       </c>
       <c r="K91" t="n">
-        <v>0.2747357354055993</v>
+        <v>0.274829869186715</v>
       </c>
       <c r="L91" t="n">
-        <v>0.8392612191157347</v>
+        <v>0.8395487784744855</v>
       </c>
       <c r="M91" t="n">
-        <v>1.886003045478666</v>
+        <v>1.885621352338799</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -4386,25 +4470,25 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="n">
-        <v>90.8923617863</v>
+        <v>90.8970875556</v>
       </c>
       <c r="H92" t="n">
-        <v>79.5307513188</v>
+        <v>79.53995027240001</v>
       </c>
       <c r="I92" t="n">
-        <v>0.7759659835635863</v>
+        <v>0.7758595700022721</v>
       </c>
       <c r="J92" t="n">
-        <v>0.09107073838878603</v>
+        <v>0.09111399593403574</v>
       </c>
       <c r="K92" t="n">
-        <v>0.1329632780476276</v>
+        <v>0.1330264340636922</v>
       </c>
       <c r="L92" t="n">
-        <v>2.460861228738386</v>
+        <v>2.460605144070509</v>
       </c>
       <c r="M92" t="n">
-        <v>0.4061754932139857</v>
+        <v>0.4063684218657994</v>
       </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
@@ -4425,25 +4509,25 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="n">
-        <v>79.5307513188</v>
+        <v>79.53995027240001</v>
       </c>
       <c r="H93" t="n">
-        <v>90.8923617863</v>
+        <v>90.8970875556</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1761317542980263</v>
+        <v>0.1762007898639359</v>
       </c>
       <c r="J93" t="n">
-        <v>0.5667158844268553</v>
+        <v>0.5665460569347177</v>
       </c>
       <c r="K93" t="n">
-        <v>0.2571523612751185</v>
+        <v>0.2572531532013464</v>
       </c>
       <c r="L93" t="n">
-        <v>0.7855476241691974</v>
+        <v>0.7858555227931541</v>
       </c>
       <c r="M93" t="n">
-        <v>1.957300014555684</v>
+        <v>1.9568913240055</v>
       </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
@@ -4464,25 +4548,25 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="n">
-        <v>90.8923617863</v>
+        <v>90.8970875556</v>
       </c>
       <c r="H94" t="n">
-        <v>78.0501765163</v>
+        <v>78.0604017979</v>
       </c>
       <c r="I94" t="n">
-        <v>0.8105858653532184</v>
+        <v>0.8104693590038712</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0769976157100738</v>
+        <v>0.07704497601468653</v>
       </c>
       <c r="K94" t="n">
-        <v>0.1124165189367077</v>
+        <v>0.1124856649814423</v>
       </c>
       <c r="L94" t="n">
-        <v>2.544174114996363</v>
+        <v>2.543893741993056</v>
       </c>
       <c r="M94" t="n">
-        <v>0.3434093660669291</v>
+        <v>0.343620593025502</v>
       </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
@@ -4662,25 +4746,25 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="n">
-        <v>88.57476124</v>
+        <v>88.5798321115</v>
       </c>
       <c r="H98" t="n">
-        <v>87.6434684086</v>
+        <v>87.6497100763</v>
       </c>
       <c r="I98" t="n">
-        <v>0.4351233034298889</v>
+        <v>0.4350893157063518</v>
       </c>
       <c r="J98" t="n">
-        <v>0.2296246734024842</v>
+        <v>0.2296384895502635</v>
       </c>
       <c r="K98" t="n">
-        <v>0.3352520231676269</v>
+        <v>0.3352721947433847</v>
       </c>
       <c r="L98" t="n">
-        <v>1.640621933457294</v>
+        <v>1.64054014186244</v>
       </c>
       <c r="M98" t="n">
-        <v>1.024126043375079</v>
+        <v>1.024187663394175</v>
       </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -4701,25 +4785,25 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="n">
-        <v>87.6434684086</v>
+        <v>87.6497100763</v>
       </c>
       <c r="H99" t="n">
-        <v>88.57476124</v>
+        <v>88.5798321115</v>
       </c>
       <c r="I99" t="n">
-        <v>0.3699611780877643</v>
+        <v>0.3700084787020506</v>
       </c>
       <c r="J99" t="n">
-        <v>0.2561133422407463</v>
+        <v>0.2560941143487599</v>
       </c>
       <c r="K99" t="n">
-        <v>0.3739254796714895</v>
+        <v>0.3738974069491895</v>
       </c>
       <c r="L99" t="n">
-        <v>1.483809013934782</v>
+        <v>1.483922843055341</v>
       </c>
       <c r="M99" t="n">
-        <v>1.142265506393728</v>
+        <v>1.142179749995469</v>
       </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -4793,25 +4877,25 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="n">
-        <v>86.9661452472</v>
+        <v>86.97233146000001</v>
       </c>
       <c r="H101" t="n">
-        <v>88.57476124</v>
+        <v>88.5798321115</v>
       </c>
       <c r="I101" t="n">
-        <v>0.3468273840978506</v>
+        <v>0.3468714888247126</v>
       </c>
       <c r="J101" t="n">
-        <v>0.2655173235374591</v>
+        <v>0.2654993947867022</v>
       </c>
       <c r="K101" t="n">
-        <v>0.3876552923646903</v>
+        <v>0.3876291163885853</v>
       </c>
       <c r="L101" t="n">
-        <v>1.428137444658242</v>
+        <v>1.428243582862723</v>
       </c>
       <c r="M101" t="n">
-        <v>1.184207262977068</v>
+        <v>1.184127300748692</v>
       </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
@@ -4832,25 +4916,25 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="n">
-        <v>88.57476124</v>
+        <v>88.5798321115</v>
       </c>
       <c r="H102" t="n">
-        <v>85.5554294686</v>
+        <v>85.5622657941</v>
       </c>
       <c r="I102" t="n">
-        <v>0.5093272311134894</v>
+        <v>0.5092714425916411</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1994604751571181</v>
+        <v>0.1994831534180321</v>
       </c>
       <c r="K102" t="n">
-        <v>0.2912122937293924</v>
+        <v>0.2912454039903269</v>
       </c>
       <c r="L102" t="n">
-        <v>1.819193987069861</v>
+        <v>1.81905973176525</v>
       </c>
       <c r="M102" t="n">
-        <v>0.8895937192007467</v>
+        <v>0.8896948642444231</v>
       </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
@@ -4871,25 +4955,25 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="n">
-        <v>85.5554294686</v>
+        <v>85.5622657941</v>
       </c>
       <c r="H103" t="n">
-        <v>88.57476124</v>
+        <v>88.5798321115</v>
       </c>
       <c r="I103" t="n">
-        <v>0.3009861529253273</v>
+        <v>0.3010474383004412</v>
       </c>
       <c r="J103" t="n">
-        <v>0.284151970355558</v>
+        <v>0.2841270576014467</v>
       </c>
       <c r="K103" t="n">
-        <v>0.4148618767191147</v>
+        <v>0.4148255040981122</v>
       </c>
       <c r="L103" t="n">
-        <v>1.317820335495097</v>
+        <v>1.317967818999436</v>
       </c>
       <c r="M103" t="n">
-        <v>1.267317787785789</v>
+        <v>1.267206676902452</v>
       </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
@@ -4963,25 +5047,25 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
-        <v>84.3517729182</v>
+        <v>84.3591607421</v>
       </c>
       <c r="H105" t="n">
-        <v>88.57476124</v>
+        <v>88.5798321115</v>
       </c>
       <c r="I105" t="n">
-        <v>0.278634260639767</v>
+        <v>0.278666969097222</v>
       </c>
       <c r="J105" t="n">
-        <v>0.3145597188261732</v>
+        <v>0.3144792560208338</v>
       </c>
       <c r="K105" t="n">
-        <v>0.4068060205340598</v>
+        <v>0.4068537748819441</v>
       </c>
       <c r="L105" t="n">
-        <v>1.242708802453361</v>
+        <v>1.24285468217361</v>
       </c>
       <c r="M105" t="n">
-        <v>1.350485177012579</v>
+        <v>1.350291542944446</v>
       </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
@@ -5002,25 +5086,25 @@
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="n">
-        <v>88.57476124</v>
+        <v>88.5798321115</v>
       </c>
       <c r="H106" t="n">
-        <v>84.1070818697</v>
+        <v>84.11421312580001</v>
       </c>
       <c r="I106" t="n">
-        <v>0.5607533514227181</v>
+        <v>0.5606879887586004</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1785555482021471</v>
+        <v>0.1785821183908129</v>
       </c>
       <c r="K106" t="n">
-        <v>0.2606911003751348</v>
+        <v>0.2607298928505868</v>
       </c>
       <c r="L106" t="n">
-        <v>1.942951154643289</v>
+        <v>1.942793859126388</v>
       </c>
       <c r="M106" t="n">
-        <v>0.7963577449815762</v>
+        <v>0.7964762480230256</v>
       </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
@@ -5094,31 +5178,33 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="n">
-        <v>88.57476124</v>
+        <v>88.5798321115</v>
       </c>
       <c r="H108" t="n">
-        <v>83.2358186829</v>
+        <v>83.24334700990001</v>
       </c>
       <c r="I108" t="n">
-        <v>0.5911414853537866</v>
+        <v>0.5910636364199954</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1662026482301681</v>
+        <v>0.1662342941382132</v>
       </c>
       <c r="K108" t="n">
-        <v>0.2426558664160453</v>
+        <v>0.2427020694417913</v>
       </c>
       <c r="L108" t="n">
-        <v>2.016080322477405</v>
+        <v>2.015892978701777</v>
       </c>
       <c r="M108" t="n">
-        <v>0.7412638111065495</v>
+        <v>0.741404951856431</v>
       </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr"/>
+      <c r="A109" t="n">
+        <v>3</v>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Mainz 05</t>
@@ -5129,9 +5215,17 @@
           <t>RB Leipzig</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
       <c r="G109" t="n">
         <v>83.2358186829</v>
       </c>
@@ -5153,8 +5247,12 @@
       <c r="M109" t="n">
         <v>1.439033139653038</v>
       </c>
-      <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -5225,25 +5323,25 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="n">
-        <v>81.8021821273</v>
+        <v>81.81072821559999</v>
       </c>
       <c r="H111" t="n">
-        <v>88.57476124</v>
+        <v>88.5798321115</v>
       </c>
       <c r="I111" t="n">
-        <v>0.2433778638180964</v>
+        <v>0.2434311172379527</v>
       </c>
       <c r="J111" t="n">
-        <v>0.4012904550074828</v>
+        <v>0.4011594515946364</v>
       </c>
       <c r="K111" t="n">
-        <v>0.3553316811744207</v>
+        <v>0.3554094311674109</v>
       </c>
       <c r="L111" t="n">
-        <v>1.08546527262871</v>
+        <v>1.085702782881269</v>
       </c>
       <c r="M111" t="n">
-        <v>1.559203046196869</v>
+        <v>1.55888778595132</v>
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
@@ -5264,25 +5362,25 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
-        <v>88.57476124</v>
+        <v>88.5798321115</v>
       </c>
       <c r="H112" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="I112" t="n">
-        <v>0.6444859452522571</v>
+        <v>0.6443766129680428</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1445179084340418</v>
+        <v>0.1445623524520151</v>
       </c>
       <c r="K112" t="n">
-        <v>0.210996146313701</v>
+        <v>0.211061034579942</v>
       </c>
       <c r="L112" t="n">
-        <v>2.144453982070472</v>
+        <v>2.14419087348407</v>
       </c>
       <c r="M112" t="n">
-        <v>0.6445498716158264</v>
+        <v>0.6447480919359874</v>
       </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
@@ -5303,25 +5401,25 @@
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="H113" t="n">
-        <v>88.57476124</v>
+        <v>88.5798321115</v>
       </c>
       <c r="I113" t="n">
-        <v>0.2411998589870899</v>
+        <v>0.2412543258914764</v>
       </c>
       <c r="J113" t="n">
-        <v>0.4066483468917589</v>
+        <v>0.4065143583069682</v>
       </c>
       <c r="K113" t="n">
-        <v>0.3521517941211512</v>
+        <v>0.3522313158015555</v>
       </c>
       <c r="L113" t="n">
-        <v>1.075751371082421</v>
+        <v>1.075994293475985</v>
       </c>
       <c r="M113" t="n">
-        <v>1.572096834796428</v>
+        <v>1.57177439072246</v>
       </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
@@ -5342,32 +5440,32 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="n">
-        <v>88.57476124</v>
+        <v>88.5798321115</v>
       </c>
       <c r="H114" t="n">
-        <v>81.0320842883</v>
+        <v>81.04097752529999</v>
       </c>
       <c r="I114" t="n">
-        <v>0.664520621597126</v>
+        <v>0.6644053385500748</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1363737310580788</v>
+        <v>0.1364205940853355</v>
       </c>
       <c r="K114" t="n">
-        <v>0.1991056473447951</v>
+        <v>0.1991740673645898</v>
       </c>
       <c r="L114" t="n">
-        <v>2.192667512136173</v>
+        <v>2.192390083014814</v>
       </c>
       <c r="M114" t="n">
-        <v>0.6082268405190316</v>
+        <v>0.6084358496205964</v>
       </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -5380,10 +5478,10 @@
         </is>
       </c>
       <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
         <v>1</v>
-      </c>
-      <c r="E115" t="n">
-        <v>6</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5419,7 +5517,9 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr"/>
+      <c r="A116" t="n">
+        <v>4</v>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>RB Leipzig</t>
@@ -5430,9 +5530,17 @@
           <t>Köln</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>3</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
       <c r="G116" t="n">
         <v>88.57476124</v>
       </c>
@@ -5454,8 +5562,12 @@
       <c r="M116" t="n">
         <v>0.5937445546843856</v>
       </c>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>3</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr"/>
@@ -5473,25 +5585,25 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="n">
-        <v>80.77975022850001</v>
+        <v>80.7883892947</v>
       </c>
       <c r="H117" t="n">
-        <v>88.57476124</v>
+        <v>88.5798321115</v>
       </c>
       <c r="I117" t="n">
-        <v>0.2283456057590403</v>
+        <v>0.2284015576887859</v>
       </c>
       <c r="J117" t="n">
-        <v>0.4382698098327608</v>
+        <v>0.4381321680855865</v>
       </c>
       <c r="K117" t="n">
-        <v>0.3333845844081988</v>
+        <v>0.3334662742256275</v>
       </c>
       <c r="L117" t="n">
-        <v>1.01842140168532</v>
+        <v>1.018670947291985</v>
       </c>
       <c r="M117" t="n">
-        <v>1.648194013906481</v>
+        <v>1.647862778482387</v>
       </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
@@ -5512,31 +5624,33 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="n">
-        <v>88.57476124</v>
+        <v>88.5798321115</v>
       </c>
       <c r="H118" t="n">
-        <v>80.33733306649999</v>
+        <v>80.3461708422</v>
       </c>
       <c r="I118" t="n">
-        <v>0.6862737039207817</v>
+        <v>0.6861640718627074</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1275310146663489</v>
+        <v>0.1275755805436149</v>
       </c>
       <c r="K118" t="n">
-        <v>0.1861952814128695</v>
+        <v>0.1862603475936777</v>
       </c>
       <c r="L118" t="n">
-        <v>2.245016393175215</v>
+        <v>2.2447525631818</v>
       </c>
       <c r="M118" t="n">
-        <v>0.5687883254119163</v>
+        <v>0.5689870892245223</v>
       </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr"/>
+      <c r="A119" t="n">
+        <v>8</v>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Augsburg</t>
@@ -5547,9 +5661,17 @@
           <t>RB Leipzig</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>6</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
       <c r="G119" t="n">
         <v>80.33733306649999</v>
       </c>
@@ -5571,11 +5693,17 @@
       <c r="M119" t="n">
         <v>1.687280981989042</v>
       </c>
-      <c r="N119" t="inlineStr"/>
-      <c r="O119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr"/>
+      <c r="A120" t="n">
+        <v>7</v>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>RB Leipzig</t>
@@ -5586,9 +5714,17 @@
           <t>Hamburger SV</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
+      <c r="D120" t="n">
+        <v>2</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
       <c r="G120" t="n">
         <v>88.57476124</v>
       </c>
@@ -5610,8 +5746,12 @@
       <c r="M120" t="n">
         <v>0.5248032394786185</v>
       </c>
-      <c r="N120" t="inlineStr"/>
-      <c r="O120" t="inlineStr"/>
+      <c r="N120" t="n">
+        <v>3</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr"/>
@@ -5629,25 +5769,25 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="n">
-        <v>79.5307513188</v>
+        <v>79.53995027240001</v>
       </c>
       <c r="H121" t="n">
-        <v>88.57476124</v>
+        <v>88.5798321115</v>
       </c>
       <c r="I121" t="n">
-        <v>0.2096139139179298</v>
+        <v>0.2096791228332311</v>
       </c>
       <c r="J121" t="n">
-        <v>0.4843497717618926</v>
+        <v>0.4841893578302517</v>
       </c>
       <c r="K121" t="n">
-        <v>0.3060363143201776</v>
+        <v>0.3061315193365173</v>
       </c>
       <c r="L121" t="n">
-        <v>0.9348780560739671</v>
+        <v>0.9351688878362105</v>
       </c>
       <c r="M121" t="n">
-        <v>1.759085629605855</v>
+        <v>1.758699592827272</v>
       </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
@@ -5668,25 +5808,25 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="n">
-        <v>88.57476124</v>
+        <v>88.5798321115</v>
       </c>
       <c r="H122" t="n">
-        <v>78.0501765163</v>
+        <v>78.0604017979</v>
       </c>
       <c r="I122" t="n">
-        <v>0.7520344383257441</v>
+        <v>0.7519025058064587</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1007990088106731</v>
+        <v>0.1008526399160737</v>
       </c>
       <c r="K122" t="n">
-        <v>0.1471665528635827</v>
+        <v>0.1472448542774676</v>
       </c>
       <c r="L122" t="n">
-        <v>2.403269867840815</v>
+        <v>2.402952371696844</v>
       </c>
       <c r="M122" t="n">
-        <v>0.4495635792956021</v>
+        <v>0.4498027740256887</v>
       </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
@@ -5707,32 +5847,32 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="n">
-        <v>78.0501765163</v>
+        <v>78.0604017979</v>
       </c>
       <c r="H123" t="n">
-        <v>88.57476124</v>
+        <v>88.5798321115</v>
       </c>
       <c r="I123" t="n">
-        <v>0.1872941163143177</v>
+        <v>0.1873743906912604</v>
       </c>
       <c r="J123" t="n">
-        <v>0.5392564738667786</v>
+        <v>0.5390589988994996</v>
       </c>
       <c r="K123" t="n">
-        <v>0.2734494098189038</v>
+        <v>0.2735666104092401</v>
       </c>
       <c r="L123" t="n">
-        <v>0.8353317587618567</v>
+        <v>0.8356897824830212</v>
       </c>
       <c r="M123" t="n">
-        <v>1.891218831419239</v>
+        <v>1.890743607107739</v>
       </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -5745,7 +5885,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
@@ -5799,25 +5939,25 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="n">
-        <v>77.91100207540001</v>
+        <v>77.9209220102</v>
       </c>
       <c r="H125" t="n">
-        <v>88.57476124</v>
+        <v>88.5798321115</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1852074815258201</v>
+        <v>0.1852830431845363</v>
       </c>
       <c r="J125" t="n">
-        <v>0.5443895954464825</v>
+        <v>0.5442037137660407</v>
       </c>
       <c r="K125" t="n">
-        <v>0.2704029230276974</v>
+        <v>0.270513243049423</v>
       </c>
       <c r="L125" t="n">
-        <v>0.8260253676051577</v>
+        <v>0.826362372603032</v>
       </c>
       <c r="M125" t="n">
-        <v>1.903571709367145</v>
+        <v>1.903124384347545</v>
       </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
@@ -5838,25 +5978,25 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="n">
-        <v>87.6434684086</v>
+        <v>87.6497100763</v>
       </c>
       <c r="H126" t="n">
-        <v>86.9661452472</v>
+        <v>86.97233146000001</v>
       </c>
       <c r="I126" t="n">
-        <v>0.424926638575237</v>
+        <v>0.4249372901434752</v>
       </c>
       <c r="J126" t="n">
-        <v>0.2337696591157573</v>
+        <v>0.2337653292099695</v>
       </c>
       <c r="K126" t="n">
-        <v>0.3413037023090056</v>
+        <v>0.3412973806465553</v>
       </c>
       <c r="L126" t="n">
-        <v>1.616083618034717</v>
+        <v>1.616109251076981</v>
       </c>
       <c r="M126" t="n">
-        <v>1.042612679656278</v>
+        <v>1.042593368276464</v>
       </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
@@ -5877,25 +6017,25 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="n">
-        <v>86.9661452472</v>
+        <v>86.97233146000001</v>
       </c>
       <c r="H127" t="n">
-        <v>87.6434684086</v>
+        <v>87.6497100763</v>
       </c>
       <c r="I127" t="n">
-        <v>0.3775471548848593</v>
+        <v>0.3775536005517259</v>
       </c>
       <c r="J127" t="n">
-        <v>0.253029611835423</v>
+        <v>0.2530269916456399</v>
       </c>
       <c r="K127" t="n">
-        <v>0.3694232332797176</v>
+        <v>0.3694194078026343</v>
       </c>
       <c r="L127" t="n">
-        <v>1.502064697934296</v>
+        <v>1.502080209457812</v>
       </c>
       <c r="M127" t="n">
-        <v>1.128512068785987</v>
+        <v>1.128500382739554</v>
       </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
@@ -5916,31 +6056,33 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="n">
-        <v>87.6434684086</v>
+        <v>87.6497100763</v>
       </c>
       <c r="H128" t="n">
-        <v>85.5554294686</v>
+        <v>85.5622657941</v>
       </c>
       <c r="I128" t="n">
-        <v>0.4747589114009085</v>
+        <v>0.474746621705507</v>
       </c>
       <c r="J128" t="n">
-        <v>0.2135126376419071</v>
+        <v>0.2135176334530459</v>
       </c>
       <c r="K128" t="n">
-        <v>0.3117284509571844</v>
+        <v>0.3117357448414471</v>
       </c>
       <c r="L128" t="n">
-        <v>1.73600518515991</v>
+        <v>1.735975609957968</v>
       </c>
       <c r="M128" t="n">
-        <v>0.9522663638829056</v>
+        <v>0.9522886452005848</v>
       </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr"/>
+      <c r="A129" t="n">
+        <v>7</v>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Freiburg</t>
@@ -5951,9 +6093,17 @@
           <t>Eintracht Frankfurt</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
+      <c r="D129" t="n">
+        <v>2</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
       <c r="G129" t="n">
         <v>85.5554294686</v>
       </c>
@@ -5975,8 +6125,12 @@
       <c r="M129" t="n">
         <v>1.215268258643448</v>
       </c>
-      <c r="N129" t="inlineStr"/>
-      <c r="O129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+      <c r="O129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -6047,25 +6201,25 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="n">
-        <v>84.3517729182</v>
+        <v>84.3591607421</v>
       </c>
       <c r="H131" t="n">
-        <v>87.6434684086</v>
+        <v>87.6497100763</v>
       </c>
       <c r="I131" t="n">
-        <v>0.291441477922313</v>
+        <v>0.2914840096776127</v>
       </c>
       <c r="J131" t="n">
-        <v>0.2880319195437753</v>
+        <v>0.2880146302123525</v>
       </c>
       <c r="K131" t="n">
-        <v>0.4205266025339118</v>
+        <v>0.4205013601100347</v>
       </c>
       <c r="L131" t="n">
-        <v>1.294851036300851</v>
+        <v>1.294953389142873</v>
       </c>
       <c r="M131" t="n">
-        <v>1.284622361165238</v>
+        <v>1.284545250747092</v>
       </c>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
@@ -6086,25 +6240,25 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="n">
-        <v>87.6434684086</v>
+        <v>87.6497100763</v>
       </c>
       <c r="H132" t="n">
-        <v>84.1070818697</v>
+        <v>84.11421312580001</v>
       </c>
       <c r="I132" t="n">
-        <v>0.5264394520605821</v>
+        <v>0.5264166615642009</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1925042877802512</v>
+        <v>0.1925135522096745</v>
       </c>
       <c r="K132" t="n">
-        <v>0.2810562601591667</v>
+        <v>0.2810697862261247</v>
       </c>
       <c r="L132" t="n">
-        <v>1.860374616340913</v>
+        <v>1.860319770918727</v>
       </c>
       <c r="M132" t="n">
-        <v>0.8585691234999203</v>
+        <v>0.8586104428551482</v>
       </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
@@ -6231,31 +6385,33 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="n">
-        <v>83.2358186829</v>
+        <v>83.24334700990001</v>
       </c>
       <c r="H135" t="n">
-        <v>87.6434684086</v>
+        <v>87.6497100763</v>
       </c>
       <c r="I135" t="n">
-        <v>0.2757459099584986</v>
+        <v>0.2757660282490012</v>
       </c>
       <c r="J135" t="n">
-        <v>0.3216650615020936</v>
+        <v>0.321615570507457</v>
       </c>
       <c r="K135" t="n">
-        <v>0.4025890285394079</v>
+        <v>0.4026184012435417</v>
       </c>
       <c r="L135" t="n">
-        <v>1.229826758414904</v>
+        <v>1.229916485990545</v>
       </c>
       <c r="M135" t="n">
-        <v>1.367584213045689</v>
+        <v>1.367465112765913</v>
       </c>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr"/>
+      <c r="A136" t="n">
+        <v>4</v>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Eintracht Frankfurt</t>
@@ -6266,9 +6422,17 @@
           <t>Union Berlin</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
+      <c r="D136" t="n">
+        <v>3</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
       <c r="G136" t="n">
         <v>87.6434684086</v>
       </c>
@@ -6290,8 +6454,12 @@
       <c r="M136" t="n">
         <v>0.7123354166289867</v>
       </c>
-      <c r="N136" t="inlineStr"/>
-      <c r="O136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr"/>
@@ -6309,25 +6477,25 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="n">
-        <v>81.8021821273</v>
+        <v>81.81072821559999</v>
       </c>
       <c r="H137" t="n">
-        <v>87.6434684086</v>
+        <v>87.6497100763</v>
       </c>
       <c r="I137" t="n">
-        <v>0.2561843574674649</v>
+        <v>0.2562201685463223</v>
       </c>
       <c r="J137" t="n">
-        <v>0.3697864806300365</v>
+        <v>0.3696983853760474</v>
       </c>
       <c r="K137" t="n">
-        <v>0.3740291619024986</v>
+        <v>0.3740814460776305</v>
       </c>
       <c r="L137" t="n">
-        <v>1.142582234304893</v>
+        <v>1.142741951716597</v>
       </c>
       <c r="M137" t="n">
-        <v>1.483388603792608</v>
+        <v>1.483176602205773</v>
       </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
@@ -6348,25 +6516,25 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="n">
-        <v>87.6434684086</v>
+        <v>87.6497100763</v>
       </c>
       <c r="H138" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="I138" t="n">
-        <v>0.6121894211980011</v>
+        <v>0.6121174359605258</v>
       </c>
       <c r="J138" t="n">
-        <v>0.15764657674878</v>
+        <v>0.1576758390404367</v>
       </c>
       <c r="K138" t="n">
-        <v>0.2301640020532188</v>
+        <v>0.2302067249990376</v>
       </c>
       <c r="L138" t="n">
-        <v>2.066732265647222</v>
+        <v>2.066559032880615</v>
       </c>
       <c r="M138" t="n">
-        <v>0.7031037322995589</v>
+        <v>0.7032342421203478</v>
       </c>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
@@ -6440,25 +6608,25 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="n">
-        <v>87.6434684086</v>
+        <v>87.6497100763</v>
       </c>
       <c r="H140" t="n">
-        <v>81.0320842883</v>
+        <v>81.04097752529999</v>
       </c>
       <c r="I140" t="n">
-        <v>0.6330077454933938</v>
+        <v>0.6329280299354439</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1491838432953684</v>
+        <v>0.149216247993722</v>
       </c>
       <c r="K140" t="n">
-        <v>0.2178084112112378</v>
+        <v>0.2178557220708341</v>
       </c>
       <c r="L140" t="n">
-        <v>2.116831647691419</v>
+        <v>2.116639811877166</v>
       </c>
       <c r="M140" t="n">
-        <v>0.665359941097343</v>
+        <v>0.665504466052</v>
       </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
@@ -6479,25 +6647,25 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="n">
-        <v>81.0320842883</v>
+        <v>81.04097752529999</v>
       </c>
       <c r="H141" t="n">
-        <v>87.6434684086</v>
+        <v>87.6497100763</v>
       </c>
       <c r="I141" t="n">
-        <v>0.2451937114692936</v>
+        <v>0.2452355104757613</v>
       </c>
       <c r="J141" t="n">
-        <v>0.3968234697855378</v>
+        <v>0.3967206442296272</v>
       </c>
       <c r="K141" t="n">
-        <v>0.3579828187451687</v>
+        <v>0.3580438452946115</v>
       </c>
       <c r="L141" t="n">
-        <v>1.093563953153049</v>
+        <v>1.093750376721895</v>
       </c>
       <c r="M141" t="n">
-        <v>1.548453228101782</v>
+        <v>1.548205777983493</v>
       </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
@@ -6518,25 +6686,25 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="n">
-        <v>87.6434684086</v>
+        <v>87.6497100763</v>
       </c>
       <c r="H142" t="n">
-        <v>80.77975022850001</v>
+        <v>80.7883892947</v>
       </c>
       <c r="I142" t="n">
-        <v>0.6413410960877515</v>
+        <v>0.6412705177341708</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1457963024033531</v>
+        <v>0.1458249927909875</v>
       </c>
       <c r="K142" t="n">
-        <v>0.2128626015088955</v>
+        <v>0.2129044894748417</v>
       </c>
       <c r="L142" t="n">
-        <v>2.13688588977215</v>
+        <v>2.136716042677354</v>
       </c>
       <c r="M142" t="n">
-        <v>0.6502515087189548</v>
+        <v>0.6503794678478041</v>
       </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
@@ -6557,25 +6725,25 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="n">
-        <v>80.77975022850001</v>
+        <v>80.7883892947</v>
       </c>
       <c r="H143" t="n">
-        <v>87.6434684086</v>
+        <v>87.6497100763</v>
       </c>
       <c r="I143" t="n">
-        <v>0.2415322883181838</v>
+        <v>0.241570696658412</v>
       </c>
       <c r="J143" t="n">
-        <v>0.4058305707372677</v>
+        <v>0.4057360862203065</v>
       </c>
       <c r="K143" t="n">
-        <v>0.3526371409445484</v>
+        <v>0.3526932171212815</v>
       </c>
       <c r="L143" t="n">
-        <v>1.0772340058991</v>
+        <v>1.077405307096517</v>
       </c>
       <c r="M143" t="n">
-        <v>1.570128853156352</v>
+        <v>1.569901475782201</v>
       </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
@@ -6596,25 +6764,25 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="n">
-        <v>87.6434684086</v>
+        <v>87.6497100763</v>
       </c>
       <c r="H144" t="n">
-        <v>80.33733306649999</v>
+        <v>80.3461708422</v>
       </c>
       <c r="I144" t="n">
-        <v>0.6557456225560687</v>
+        <v>0.6556699481199123</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1399408038389964</v>
+        <v>0.1399715658049137</v>
       </c>
       <c r="K144" t="n">
-        <v>0.2043135736049348</v>
+        <v>0.204358486075174</v>
       </c>
       <c r="L144" t="n">
-        <v>2.171550441273141</v>
+        <v>2.171368330434911</v>
       </c>
       <c r="M144" t="n">
-        <v>0.624135985121924</v>
+        <v>0.6242731834899152</v>
       </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
@@ -6635,25 +6803,25 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="n">
-        <v>80.33733306649999</v>
+        <v>80.3461708422</v>
       </c>
       <c r="H145" t="n">
-        <v>87.6434684086</v>
+        <v>87.6497100763</v>
       </c>
       <c r="I145" t="n">
-        <v>0.2350515203137962</v>
+        <v>0.2350932933143291</v>
       </c>
       <c r="J145" t="n">
-        <v>0.4217732600280613</v>
+        <v>0.4216704984467505</v>
       </c>
       <c r="K145" t="n">
-        <v>0.3431752196581425</v>
+        <v>0.3432362082389204</v>
       </c>
       <c r="L145" t="n">
-        <v>1.048329780599531</v>
+        <v>1.048516088181908</v>
       </c>
       <c r="M145" t="n">
-        <v>1.608494999742326</v>
+        <v>1.608247703579172</v>
       </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
@@ -6727,31 +6895,33 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="n">
-        <v>79.5307513188</v>
+        <v>79.53995027240001</v>
       </c>
       <c r="H147" t="n">
-        <v>87.6434684086</v>
+        <v>87.6497100763</v>
       </c>
       <c r="I147" t="n">
-        <v>0.2230733079380275</v>
+        <v>0.2231211236129025</v>
       </c>
       <c r="J147" t="n">
-        <v>0.4512396624724523</v>
+        <v>0.4511220359122599</v>
       </c>
       <c r="K147" t="n">
-        <v>0.3256870295895202</v>
+        <v>0.3257568404748377</v>
       </c>
       <c r="L147" t="n">
-        <v>0.9949069534036026</v>
+        <v>0.9951202113135453</v>
       </c>
       <c r="M147" t="n">
-        <v>1.679406017006877</v>
+        <v>1.679122948211617</v>
       </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr"/>
+      <c r="A148" t="n">
+        <v>8</v>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Eintracht Frankfurt</t>
@@ -6762,9 +6932,17 @@
           <t>St. Pauli</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>2</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
       <c r="G148" t="n">
         <v>87.6434684086</v>
       </c>
@@ -6786,8 +6964,12 @@
       <c r="M148" t="n">
         <v>0.4979527951441137</v>
       </c>
-      <c r="N148" t="inlineStr"/>
-      <c r="O148" t="inlineStr"/>
+      <c r="N148" t="n">
+        <v>3</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr"/>
@@ -6805,25 +6987,25 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="n">
-        <v>78.0501765163</v>
+        <v>78.0604017979</v>
       </c>
       <c r="H149" t="n">
-        <v>87.6434684086</v>
+        <v>87.6497100763</v>
       </c>
       <c r="I149" t="n">
-        <v>0.2007818379187125</v>
+        <v>0.2008456008826906</v>
       </c>
       <c r="J149" t="n">
-        <v>0.5060766787199674</v>
+        <v>0.5059198218285812</v>
       </c>
       <c r="K149" t="n">
-        <v>0.2931414833613202</v>
+        <v>0.2932345772887282</v>
       </c>
       <c r="L149" t="n">
-        <v>0.8954869971174575</v>
+        <v>0.8957713799367999</v>
       </c>
       <c r="M149" t="n">
-        <v>1.811371519521222</v>
+        <v>1.810994042774472</v>
       </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
@@ -6844,25 +7026,25 @@
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="n">
-        <v>87.6434684086</v>
+        <v>87.6497100763</v>
       </c>
       <c r="H150" t="n">
-        <v>77.91100207540001</v>
+        <v>77.9209220102</v>
       </c>
       <c r="I150" t="n">
-        <v>0.7292875285994747</v>
+        <v>0.7291908178723736</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1100457200815143</v>
+        <v>0.110085033385214</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1606667513190109</v>
+        <v>0.1607241487424124</v>
       </c>
       <c r="L150" t="n">
-        <v>2.348529337117435</v>
+        <v>2.348296602359533</v>
       </c>
       <c r="M150" t="n">
-        <v>0.4908039115635539</v>
+        <v>0.4909792488980544</v>
       </c>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
@@ -6936,32 +7118,32 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="n">
-        <v>86.9661452472</v>
+        <v>86.97233146000001</v>
       </c>
       <c r="H152" t="n">
-        <v>85.5554294686</v>
+        <v>85.5622657941</v>
       </c>
       <c r="I152" t="n">
-        <v>0.4497499318351365</v>
+        <v>0.4497356962631466</v>
       </c>
       <c r="J152" t="n">
-        <v>0.223678889497912</v>
+        <v>0.2236846763157941</v>
       </c>
       <c r="K152" t="n">
-        <v>0.3265711786669515</v>
+        <v>0.3265796274210593</v>
       </c>
       <c r="L152" t="n">
-        <v>1.675820974172361</v>
+        <v>1.675786716210499</v>
       </c>
       <c r="M152" t="n">
-        <v>0.9976078471606873</v>
+        <v>0.9976336563684416</v>
       </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -6977,7 +7159,7 @@
         <v>3</v>
       </c>
       <c r="E153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -7028,25 +7210,25 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="n">
-        <v>86.9661452472</v>
+        <v>86.97233146000001</v>
       </c>
       <c r="H154" t="n">
-        <v>84.3517729182</v>
+        <v>84.3591607421</v>
       </c>
       <c r="I154" t="n">
-        <v>0.4925680005992403</v>
+        <v>0.4925339309274938</v>
       </c>
       <c r="J154" t="n">
-        <v>0.2062731704881137</v>
+        <v>0.2062870199481733</v>
       </c>
       <c r="K154" t="n">
-        <v>0.301158828912646</v>
+        <v>0.301179049124333</v>
       </c>
       <c r="L154" t="n">
-        <v>1.778862830710367</v>
+        <v>1.778780841906814</v>
       </c>
       <c r="M154" t="n">
-        <v>0.9199783403769872</v>
+        <v>0.9200401089688528</v>
       </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
@@ -7067,25 +7249,25 @@
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="n">
-        <v>84.3517729182</v>
+        <v>84.3591607421</v>
       </c>
       <c r="H155" t="n">
-        <v>86.9661452472</v>
+        <v>86.97233146000001</v>
       </c>
       <c r="I155" t="n">
-        <v>0.3118181444805121</v>
+        <v>0.311864041219273</v>
       </c>
       <c r="J155" t="n">
-        <v>0.2797487217558894</v>
+        <v>0.279730064545011</v>
       </c>
       <c r="K155" t="n">
-        <v>0.4084331337635985</v>
+        <v>0.408405894235716</v>
       </c>
       <c r="L155" t="n">
-        <v>1.343887567205135</v>
+        <v>1.343998017893535</v>
       </c>
       <c r="M155" t="n">
-        <v>1.247679299031267</v>
+        <v>1.247596087870749</v>
       </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
@@ -7106,25 +7288,25 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="n">
-        <v>86.9661452472</v>
+        <v>86.97233146000001</v>
       </c>
       <c r="H156" t="n">
-        <v>84.1070818697</v>
+        <v>84.11421312580001</v>
       </c>
       <c r="I156" t="n">
-        <v>0.501306416233427</v>
+        <v>0.5012815023007188</v>
       </c>
       <c r="J156" t="n">
-        <v>0.202720969010802</v>
+        <v>0.2027310966257241</v>
       </c>
       <c r="K156" t="n">
-        <v>0.2959726147557709</v>
+        <v>0.2959874010735571</v>
       </c>
       <c r="L156" t="n">
-        <v>1.799891863456052</v>
+        <v>1.799831907975713</v>
       </c>
       <c r="M156" t="n">
-        <v>0.9041355217881768</v>
+        <v>0.9041806909507295</v>
       </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
@@ -7145,25 +7327,25 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="n">
-        <v>84.1070818697</v>
+        <v>84.11421312580001</v>
       </c>
       <c r="H157" t="n">
-        <v>86.9661452472</v>
+        <v>86.97233146000001</v>
       </c>
       <c r="I157" t="n">
-        <v>0.3040708599055568</v>
+        <v>0.3041080532715294</v>
       </c>
       <c r="J157" t="n">
-        <v>0.2828980244286354</v>
+        <v>0.282882905174175</v>
       </c>
       <c r="K157" t="n">
-        <v>0.4130311156658077</v>
+        <v>0.4130090415542955</v>
       </c>
       <c r="L157" t="n">
-        <v>1.325243695382478</v>
+        <v>1.325333201368884</v>
       </c>
       <c r="M157" t="n">
-        <v>1.261725188951714</v>
+        <v>1.261657757076821</v>
       </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
@@ -7237,25 +7419,25 @@
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="n">
-        <v>83.2358186829</v>
+        <v>83.24334700990001</v>
       </c>
       <c r="H159" t="n">
-        <v>86.9661452472</v>
+        <v>86.97233146000001</v>
       </c>
       <c r="I159" t="n">
-        <v>0.2841763021741843</v>
+        <v>0.2841963761124469</v>
       </c>
       <c r="J159" t="n">
-        <v>0.3009262966515067</v>
+        <v>0.3008769147633808</v>
       </c>
       <c r="K159" t="n">
-        <v>0.4148974011743091</v>
+        <v>0.4149267091241724</v>
       </c>
       <c r="L159" t="n">
-        <v>1.267426307696862</v>
+        <v>1.267515837461513</v>
       </c>
       <c r="M159" t="n">
-        <v>1.317676291128829</v>
+        <v>1.317557453414315</v>
       </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
@@ -7315,7 +7497,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -7328,14 +7510,14 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G161" t="n">
@@ -7360,10 +7542,10 @@
         <v>1.42983964037408</v>
       </c>
       <c r="N161" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -7435,25 +7617,25 @@
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="H163" t="n">
-        <v>86.9661452472</v>
+        <v>86.97233146000001</v>
       </c>
       <c r="I163" t="n">
-        <v>0.2631717193963977</v>
+        <v>0.2632084640966745</v>
       </c>
       <c r="J163" t="n">
-        <v>0.3525975702848617</v>
+        <v>0.3525071783221808</v>
       </c>
       <c r="K163" t="n">
-        <v>0.3842307103187406</v>
+        <v>0.3842843575811447</v>
       </c>
       <c r="L163" t="n">
-        <v>1.173745868507934</v>
+        <v>1.173909749871168</v>
       </c>
       <c r="M163" t="n">
-        <v>1.442023421173326</v>
+        <v>1.441805892547687</v>
       </c>
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
@@ -7474,31 +7656,33 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="n">
-        <v>86.9661452472</v>
+        <v>86.97233146000001</v>
       </c>
       <c r="H164" t="n">
-        <v>81.0320842883</v>
+        <v>81.04097752529999</v>
       </c>
       <c r="I164" t="n">
-        <v>0.6093333961108179</v>
+        <v>0.6092497510887745</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1588075625565781</v>
+        <v>0.1588415645980591</v>
       </c>
       <c r="K164" t="n">
-        <v>0.231859041332604</v>
+        <v>0.2319086843131663</v>
       </c>
       <c r="L164" t="n">
-        <v>2.059859229665058</v>
+        <v>2.05965793757949</v>
       </c>
       <c r="M164" t="n">
-        <v>0.7082817290023382</v>
+        <v>0.7084333781073435</v>
       </c>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr"/>
+      <c r="A165" t="n">
+        <v>7</v>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Wolfsburg</t>
@@ -7509,9 +7693,17 @@
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>3</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
       <c r="G165" t="n">
         <v>81.0320842883</v>
       </c>
@@ -7533,8 +7725,12 @@
       <c r="M165" t="n">
         <v>1.493311963734125</v>
       </c>
-      <c r="N165" t="inlineStr"/>
-      <c r="O165" t="inlineStr"/>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr"/>
@@ -7552,25 +7748,25 @@
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="n">
-        <v>86.9661452472</v>
+        <v>86.97233146000001</v>
       </c>
       <c r="H166" t="n">
-        <v>80.77975022850001</v>
+        <v>80.7883892947</v>
       </c>
       <c r="I166" t="n">
-        <v>0.6178798111120988</v>
+        <v>0.6178054218231369</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1553334101170331</v>
+        <v>0.1553636496653915</v>
       </c>
       <c r="K166" t="n">
-        <v>0.2267867787708683</v>
+        <v>0.2268309285114716</v>
       </c>
       <c r="L166" t="n">
-        <v>2.080426212107165</v>
+        <v>2.080247193980882</v>
       </c>
       <c r="M166" t="n">
-        <v>0.6927870091219674</v>
+        <v>0.692921877507646</v>
       </c>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
@@ -7697,25 +7893,25 @@
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="n">
-        <v>80.33733306649999</v>
+        <v>80.3461708422</v>
       </c>
       <c r="H169" t="n">
-        <v>86.9661452472</v>
+        <v>86.97233146000001</v>
       </c>
       <c r="I169" t="n">
-        <v>0.2445647716723769</v>
+        <v>0.2446065950798046</v>
       </c>
       <c r="J169" t="n">
-        <v>0.3983706616859529</v>
+        <v>0.3982677761036808</v>
       </c>
       <c r="K169" t="n">
-        <v>0.3570645666416702</v>
+        <v>0.3571256288165147</v>
       </c>
       <c r="L169" t="n">
-        <v>1.090758881658801</v>
+        <v>1.090945414055928</v>
       </c>
       <c r="M169" t="n">
-        <v>1.552176551699529</v>
+        <v>1.551928957127557</v>
       </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
@@ -7736,25 +7932,25 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="n">
-        <v>86.9661452472</v>
+        <v>86.97233146000001</v>
       </c>
       <c r="H170" t="n">
-        <v>79.5307513188</v>
+        <v>79.53995027240001</v>
       </c>
       <c r="I170" t="n">
-        <v>0.6590328367228779</v>
+        <v>0.6589440618840328</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1386045379175293</v>
+        <v>0.1386406252503932</v>
       </c>
       <c r="K170" t="n">
-        <v>0.2023626253595927</v>
+        <v>0.202415312865574</v>
       </c>
       <c r="L170" t="n">
-        <v>2.179461135528227</v>
+        <v>2.179247498517672</v>
       </c>
       <c r="M170" t="n">
-        <v>0.6181762391121806</v>
+        <v>0.6183371886167535</v>
       </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
@@ -7775,31 +7971,33 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="n">
-        <v>79.5307513188</v>
+        <v>79.53995027240001</v>
       </c>
       <c r="H171" t="n">
-        <v>86.9661452472</v>
+        <v>86.97233146000001</v>
       </c>
       <c r="I171" t="n">
-        <v>0.2327599104103081</v>
+        <v>0.2328079552463039</v>
       </c>
       <c r="J171" t="n">
-        <v>0.427410620390642</v>
+        <v>0.4272924300940925</v>
       </c>
       <c r="K171" t="n">
-        <v>0.3398294691990498</v>
+        <v>0.3398996146596037</v>
       </c>
       <c r="L171" t="n">
-        <v>1.038109200429974</v>
+        <v>1.038323480398516</v>
       </c>
       <c r="M171" t="n">
-        <v>1.622061330370976</v>
+        <v>1.621776904941881</v>
       </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr"/>
+      <c r="A172" t="n">
+        <v>4</v>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Stuttgart</t>
@@ -7810,9 +8008,17 @@
           <t>St. Pauli</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
+      <c r="D172" t="n">
+        <v>2</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
       <c r="G172" t="n">
         <v>86.9661452472</v>
       </c>
@@ -7834,11 +8040,17 @@
       <c r="M172" t="n">
         <v>0.5351106479563453</v>
       </c>
-      <c r="N172" t="inlineStr"/>
-      <c r="O172" t="inlineStr"/>
+      <c r="N172" t="n">
+        <v>3</v>
+      </c>
+      <c r="O172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr"/>
+      <c r="A173" t="n">
+        <v>7</v>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>St. Pauli</t>
@@ -7849,9 +8061,17 @@
           <t>Stuttgart</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>3</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
       <c r="G173" t="n">
         <v>78.0501765163</v>
       </c>
@@ -7873,8 +8093,12 @@
       <c r="M173" t="n">
         <v>1.753177692568864</v>
       </c>
-      <c r="N173" t="inlineStr"/>
-      <c r="O173" t="inlineStr"/>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -7945,25 +8169,25 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="n">
-        <v>77.91100207540001</v>
+        <v>77.9209220102</v>
       </c>
       <c r="H175" t="n">
-        <v>86.9661452472</v>
+        <v>86.97233146000001</v>
       </c>
       <c r="I175" t="n">
-        <v>0.2085125641750546</v>
+        <v>0.2085724904359169</v>
       </c>
       <c r="J175" t="n">
-        <v>0.4870590921293657</v>
+        <v>0.4869116735276444</v>
       </c>
       <c r="K175" t="n">
-        <v>0.3044283436955798</v>
+        <v>0.3045158360364386</v>
       </c>
       <c r="L175" t="n">
-        <v>0.9299660362207436</v>
+        <v>0.9302333073441893</v>
       </c>
       <c r="M175" t="n">
-        <v>1.765605620083677</v>
+        <v>1.765250856619372</v>
       </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
@@ -7984,25 +8208,25 @@
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="n">
-        <v>85.5554294686</v>
+        <v>85.5622657941</v>
       </c>
       <c r="H176" t="n">
-        <v>84.3517729182</v>
+        <v>84.3591607421</v>
       </c>
       <c r="I176" t="n">
-        <v>0.4404533793593354</v>
+        <v>0.4404435900322503</v>
       </c>
       <c r="J176" t="n">
-        <v>0.2274579758701888</v>
+        <v>0.227461955271443</v>
       </c>
       <c r="K176" t="n">
-        <v>0.3320886447704757</v>
+        <v>0.3320944546963067</v>
       </c>
       <c r="L176" t="n">
-        <v>1.653448782848482</v>
+        <v>1.653425224793058</v>
       </c>
       <c r="M176" t="n">
-        <v>1.014462572381042</v>
+        <v>1.014480320510636</v>
       </c>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr"/>
@@ -8023,32 +8247,32 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="n">
-        <v>84.3517729182</v>
+        <v>84.3591607421</v>
       </c>
       <c r="H177" t="n">
-        <v>85.5554294686</v>
+        <v>85.5622657941</v>
       </c>
       <c r="I177" t="n">
-        <v>0.3566114156046372</v>
+        <v>0.3566391786638939</v>
       </c>
       <c r="J177" t="n">
-        <v>0.2615400749574646</v>
+        <v>0.2615287891610188</v>
       </c>
       <c r="K177" t="n">
-        <v>0.3818485094378983</v>
+        <v>0.3818320321750874</v>
       </c>
       <c r="L177" t="n">
-        <v>1.45168275625181</v>
+        <v>1.451749568166769</v>
       </c>
       <c r="M177" t="n">
-        <v>1.166468734310292</v>
+        <v>1.166418399658144</v>
       </c>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -8061,14 +8285,14 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E178" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="G178" t="n">
@@ -8093,10 +8317,10 @@
         <v>0.9988124898119337</v>
       </c>
       <c r="N178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O178" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -8115,25 +8339,25 @@
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="n">
-        <v>84.1070818697</v>
+        <v>84.11421312580001</v>
       </c>
       <c r="H179" t="n">
-        <v>85.5554294686</v>
+        <v>85.5622657941</v>
       </c>
       <c r="I179" t="n">
-        <v>0.3483145052020051</v>
+        <v>0.3483333191708467</v>
       </c>
       <c r="J179" t="n">
-        <v>0.2649128027634126</v>
+        <v>0.2649051548085989</v>
       </c>
       <c r="K179" t="n">
-        <v>0.3867726920345824</v>
+        <v>0.3867615260205545</v>
       </c>
       <c r="L179" t="n">
-        <v>1.431716207640598</v>
+        <v>1.431761483533095</v>
       </c>
       <c r="M179" t="n">
-        <v>1.18151110032482</v>
+        <v>1.181476990446351</v>
       </c>
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr"/>
@@ -8154,25 +8378,25 @@
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="n">
-        <v>85.5554294686</v>
+        <v>85.5622657941</v>
       </c>
       <c r="H180" t="n">
-        <v>83.2358186829</v>
+        <v>83.24334700990001</v>
       </c>
       <c r="I180" t="n">
-        <v>0.4800355669798445</v>
+        <v>0.4800206426697305</v>
       </c>
       <c r="J180" t="n">
-        <v>0.2113676556992502</v>
+        <v>0.2113737224919795</v>
       </c>
       <c r="K180" t="n">
-        <v>0.3085967773209053</v>
+        <v>0.30860563483829</v>
       </c>
       <c r="L180" t="n">
-        <v>1.748703478260439</v>
+        <v>1.748667562847482</v>
       </c>
       <c r="M180" t="n">
-        <v>0.942699744418656</v>
+        <v>0.9427268023142283</v>
       </c>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
@@ -8193,25 +8417,25 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="n">
-        <v>83.2358186829</v>
+        <v>83.24334700990001</v>
       </c>
       <c r="H181" t="n">
-        <v>85.5554294686</v>
+        <v>85.5622657941</v>
       </c>
       <c r="I181" t="n">
-        <v>0.319536849113417</v>
+        <v>0.3195676985149242</v>
       </c>
       <c r="J181" t="n">
-        <v>0.2766110369457654</v>
+        <v>0.2765984965386487</v>
       </c>
       <c r="K181" t="n">
-        <v>0.4038521139408175</v>
+        <v>0.4038338049464271</v>
       </c>
       <c r="L181" t="n">
-        <v>1.362462661281068</v>
+        <v>1.3625369004912</v>
       </c>
       <c r="M181" t="n">
-        <v>1.233685224778114</v>
+        <v>1.233629294562373</v>
       </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
@@ -8232,25 +8456,25 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="n">
-        <v>85.5554294686</v>
+        <v>85.5622657941</v>
       </c>
       <c r="H182" t="n">
-        <v>81.8021821273</v>
+        <v>81.81072821559999</v>
       </c>
       <c r="I182" t="n">
-        <v>0.5311857183417236</v>
+        <v>0.5311346207916035</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1905749112432018</v>
+        <v>0.1905956826050392</v>
       </c>
       <c r="K182" t="n">
-        <v>0.2782393704150746</v>
+        <v>0.2782696966033573</v>
       </c>
       <c r="L182" t="n">
-        <v>1.871796525440245</v>
+        <v>1.871673558978168</v>
       </c>
       <c r="M182" t="n">
-        <v>0.8499641041446799</v>
+        <v>0.8500567444184748</v>
       </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
@@ -8324,25 +8548,25 @@
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="n">
-        <v>85.5554294686</v>
+        <v>85.5622657941</v>
       </c>
       <c r="H184" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="I184" t="n">
-        <v>0.5365103494465182</v>
+        <v>0.5364569237558714</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1884104270542608</v>
+        <v>0.1884321448146864</v>
       </c>
       <c r="K184" t="n">
-        <v>0.2750792234992209</v>
+        <v>0.2751109314294422</v>
       </c>
       <c r="L184" t="n">
-        <v>1.884610271838775</v>
+        <v>1.884481702697056</v>
       </c>
       <c r="M184" t="n">
-        <v>0.8403105046620034</v>
+        <v>0.8404073658735014</v>
       </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
@@ -8416,25 +8640,25 @@
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="n">
-        <v>85.5554294686</v>
+        <v>85.5622657941</v>
       </c>
       <c r="H186" t="n">
-        <v>81.0320842883</v>
+        <v>81.04097752529999</v>
       </c>
       <c r="I186" t="n">
-        <v>0.5584611361765638</v>
+        <v>0.5583983110574233</v>
       </c>
       <c r="J186" t="n">
-        <v>0.179487343017657</v>
+        <v>0.1795128816839743</v>
       </c>
       <c r="K186" t="n">
-        <v>0.2620515208057793</v>
+        <v>0.2620888072586024</v>
       </c>
       <c r="L186" t="n">
-        <v>1.937434929335471</v>
+        <v>1.937283740430872</v>
       </c>
       <c r="M186" t="n">
-        <v>0.8005135498587503</v>
+        <v>0.8006274523105251</v>
       </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
@@ -8455,25 +8679,25 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="n">
-        <v>81.0320842883</v>
+        <v>81.04097752529999</v>
       </c>
       <c r="H187" t="n">
-        <v>85.5554294686</v>
+        <v>85.5622657941</v>
       </c>
       <c r="I187" t="n">
-        <v>0.2731496686589165</v>
+        <v>0.273180551129875</v>
       </c>
       <c r="J187" t="n">
-        <v>0.3280518150990652</v>
+        <v>0.3279758442205075</v>
       </c>
       <c r="K187" t="n">
-        <v>0.3987985162420182</v>
+        <v>0.3988436046496175</v>
       </c>
       <c r="L187" t="n">
-        <v>1.218247522218768</v>
+        <v>1.218385258039243</v>
       </c>
       <c r="M187" t="n">
-        <v>1.382953961539214</v>
+        <v>1.38277113731114</v>
       </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
@@ -8494,25 +8718,25 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="n">
-        <v>85.5554294686</v>
+        <v>85.5622657941</v>
       </c>
       <c r="H188" t="n">
-        <v>80.77975022850001</v>
+        <v>80.7883892947</v>
       </c>
       <c r="I188" t="n">
-        <v>0.5673302154239407</v>
+        <v>0.5672765876193675</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1758820262504306</v>
+        <v>0.1759038261709888</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2567877583256287</v>
+        <v>0.2568195862096437</v>
       </c>
       <c r="L188" t="n">
-        <v>1.958778404597451</v>
+        <v>1.958649349067746</v>
       </c>
       <c r="M188" t="n">
-        <v>0.7844338370769206</v>
+        <v>0.78453106472261</v>
       </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
@@ -8639,25 +8863,25 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="n">
-        <v>80.33733306649999</v>
+        <v>80.3461708422</v>
       </c>
       <c r="H191" t="n">
-        <v>85.5554294686</v>
+        <v>85.5622657941</v>
       </c>
       <c r="I191" t="n">
-        <v>0.263741767744585</v>
+        <v>0.2637729273194871</v>
       </c>
       <c r="J191" t="n">
-        <v>0.351195251348321</v>
+        <v>0.3511185987940617</v>
       </c>
       <c r="K191" t="n">
-        <v>0.3850629809070941</v>
+        <v>0.3851084738864513</v>
       </c>
       <c r="L191" t="n">
-        <v>1.176288284140849</v>
+        <v>1.176427255844913</v>
       </c>
       <c r="M191" t="n">
-        <v>1.438648734952057</v>
+        <v>1.438464270268636</v>
       </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
@@ -8678,25 +8902,25 @@
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="n">
-        <v>85.5554294686</v>
+        <v>85.5622657941</v>
       </c>
       <c r="H192" t="n">
-        <v>79.5307513188</v>
+        <v>79.53995027240001</v>
       </c>
       <c r="I192" t="n">
-        <v>0.6104954100112476</v>
+        <v>0.6104244381656871</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1583351991824196</v>
+        <v>0.1583640495261434</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2311693908063327</v>
+        <v>0.2312115123081694</v>
       </c>
       <c r="L192" t="n">
-        <v>2.062655620840076</v>
+        <v>2.062484826805231</v>
       </c>
       <c r="M192" t="n">
-        <v>0.7061749883535915</v>
+        <v>0.7063036608865996</v>
       </c>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
@@ -8717,25 +8941,25 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="n">
-        <v>79.5307513188</v>
+        <v>79.53995027240001</v>
       </c>
       <c r="H193" t="n">
-        <v>85.5554294686</v>
+        <v>85.5622657941</v>
       </c>
       <c r="I193" t="n">
-        <v>0.2524542939276228</v>
+        <v>0.2524916117483678</v>
       </c>
       <c r="J193" t="n">
-        <v>0.3789624369380479</v>
+        <v>0.3788706350990152</v>
       </c>
       <c r="K193" t="n">
-        <v>0.3685832691343293</v>
+        <v>0.368637753152617</v>
       </c>
       <c r="L193" t="n">
-        <v>1.125946150917198</v>
+        <v>1.126112588397721</v>
       </c>
       <c r="M193" t="n">
-        <v>1.505470579948473</v>
+        <v>1.505249658449663</v>
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
@@ -8809,25 +9033,25 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="n">
-        <v>78.0501765163</v>
+        <v>78.0604017979</v>
       </c>
       <c r="H195" t="n">
-        <v>85.5554294686</v>
+        <v>85.5622657941</v>
       </c>
       <c r="I195" t="n">
-        <v>0.2309229889410448</v>
+        <v>0.2309771038736685</v>
       </c>
       <c r="J195" t="n">
-        <v>0.4319294472050297</v>
+        <v>0.4317963244707756</v>
       </c>
       <c r="K195" t="n">
-        <v>0.3371475638539254</v>
+        <v>0.3372265716555559</v>
       </c>
       <c r="L195" t="n">
-        <v>1.02991653067706</v>
+        <v>1.030157883276561</v>
       </c>
       <c r="M195" t="n">
-        <v>1.632935905469015</v>
+        <v>1.632615545067883</v>
       </c>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
@@ -8848,25 +9072,25 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="n">
-        <v>85.5554294686</v>
+        <v>85.5622657941</v>
       </c>
       <c r="H196" t="n">
-        <v>77.91100207540001</v>
+        <v>77.9209220102</v>
       </c>
       <c r="I196" t="n">
-        <v>0.6639145201649481</v>
+        <v>0.6638249377176445</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1366201137540861</v>
+        <v>0.1366565293830713</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1994653660809657</v>
+        <v>0.1995185328992841</v>
       </c>
       <c r="L196" t="n">
-        <v>2.19120892657581</v>
+        <v>2.190993346052218</v>
       </c>
       <c r="M196" t="n">
-        <v>0.6093257073432241</v>
+        <v>0.6094881210484981</v>
       </c>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
@@ -8887,25 +9111,25 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="n">
-        <v>77.91100207540001</v>
+        <v>77.9209220102</v>
       </c>
       <c r="H197" t="n">
-        <v>85.5554294686</v>
+        <v>85.5622657941</v>
       </c>
       <c r="I197" t="n">
-        <v>0.2288577467857137</v>
+        <v>0.2289074718416948</v>
       </c>
       <c r="J197" t="n">
-        <v>0.4370099429071443</v>
+        <v>0.4368876192694308</v>
       </c>
       <c r="K197" t="n">
-        <v>0.334132310307142</v>
+        <v>0.3342049088888743</v>
       </c>
       <c r="L197" t="n">
-        <v>1.020705550664283</v>
+        <v>1.020927324413959</v>
       </c>
       <c r="M197" t="n">
-        <v>1.645162139028575</v>
+        <v>1.644867766697167</v>
       </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
@@ -8926,25 +9150,25 @@
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="n">
-        <v>84.3517729182</v>
+        <v>84.3591607421</v>
       </c>
       <c r="H198" t="n">
-        <v>84.1070818697</v>
+        <v>84.11421312580001</v>
       </c>
       <c r="I198" t="n">
-        <v>0.4053564480727175</v>
+        <v>0.4053754589260087</v>
       </c>
       <c r="J198" t="n">
-        <v>0.2417250211086514</v>
+        <v>0.2417172931195087</v>
       </c>
       <c r="K198" t="n">
-        <v>0.3529185308186311</v>
+        <v>0.3529072479544827</v>
       </c>
       <c r="L198" t="n">
-        <v>1.568987875036784</v>
+        <v>1.569033624732509</v>
       </c>
       <c r="M198" t="n">
-        <v>1.078093594144585</v>
+        <v>1.078059127313009</v>
       </c>
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr"/>
@@ -8965,25 +9189,25 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="n">
-        <v>84.1070818697</v>
+        <v>84.11421312580001</v>
       </c>
       <c r="H199" t="n">
-        <v>84.3517729182</v>
+        <v>84.3591607421</v>
       </c>
       <c r="I199" t="n">
-        <v>0.3882901219094899</v>
+        <v>0.3882910951499362</v>
       </c>
       <c r="J199" t="n">
-        <v>0.2486625520693131</v>
+        <v>0.2486621564431154</v>
       </c>
       <c r="K199" t="n">
-        <v>0.363047326021197</v>
+        <v>0.3630467484069484</v>
       </c>
       <c r="L199" t="n">
-        <v>1.527917691749667</v>
+        <v>1.527920033856757</v>
       </c>
       <c r="M199" t="n">
-        <v>1.109034982229136</v>
+        <v>1.109033217736294</v>
       </c>
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr"/>
@@ -9004,25 +9228,25 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="n">
-        <v>84.3517729182</v>
+        <v>84.3591607421</v>
       </c>
       <c r="H200" t="n">
-        <v>83.2358186829</v>
+        <v>83.24334700990001</v>
       </c>
       <c r="I200" t="n">
-        <v>0.4356761282019425</v>
+        <v>0.4356815726527468</v>
       </c>
       <c r="J200" t="n">
-        <v>0.2293999478853893</v>
+        <v>0.2293977346940054</v>
       </c>
       <c r="K200" t="n">
-        <v>0.3349239239126683</v>
+        <v>0.3349206926532478</v>
       </c>
       <c r="L200" t="n">
-        <v>1.641952308518496</v>
+        <v>1.641965410611488</v>
       </c>
       <c r="M200" t="n">
-        <v>1.023123767568836</v>
+        <v>1.023113896735264</v>
       </c>
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr"/>
@@ -9096,25 +9320,25 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="n">
-        <v>84.3517729182</v>
+        <v>84.3591607421</v>
       </c>
       <c r="H202" t="n">
-        <v>81.8021821273</v>
+        <v>81.81072821559999</v>
       </c>
       <c r="I202" t="n">
-        <v>0.4865222749271196</v>
+        <v>0.48649148481502</v>
       </c>
       <c r="J202" t="n">
-        <v>0.2087307825499514</v>
+        <v>0.208743298855683</v>
       </c>
       <c r="K202" t="n">
-        <v>0.304746942522929</v>
+        <v>0.3047652163292972</v>
       </c>
       <c r="L202" t="n">
-        <v>1.764313767304288</v>
+        <v>1.764239670774357</v>
       </c>
       <c r="M202" t="n">
-        <v>0.9309392901727832</v>
+        <v>0.9309951128963461</v>
       </c>
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
@@ -9135,25 +9359,25 @@
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="n">
-        <v>81.8021821273</v>
+        <v>81.81072821559999</v>
       </c>
       <c r="H203" t="n">
-        <v>84.3517729182</v>
+        <v>84.3591607421</v>
       </c>
       <c r="I203" t="n">
-        <v>0.3106788426493353</v>
+        <v>0.3107247387060301</v>
       </c>
       <c r="J203" t="n">
-        <v>0.2802118525815711</v>
+        <v>0.2801931956479553</v>
       </c>
       <c r="K203" t="n">
-        <v>0.4091093047690937</v>
+        <v>0.4090820656460146</v>
       </c>
       <c r="L203" t="n">
-        <v>1.3411458327171</v>
+        <v>1.341256281764105</v>
       </c>
       <c r="M203" t="n">
-        <v>1.249744862513807</v>
+        <v>1.24966165258988</v>
       </c>
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr"/>
@@ -9174,25 +9398,25 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="n">
-        <v>84.3517729182</v>
+        <v>84.3591607421</v>
       </c>
       <c r="H204" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="I204" t="n">
-        <v>0.4918689227646435</v>
+        <v>0.4918357041505566</v>
       </c>
       <c r="J204" t="n">
-        <v>0.2065573484696571</v>
+        <v>0.2065708519713185</v>
       </c>
       <c r="K204" t="n">
-        <v>0.3015737287656994</v>
+        <v>0.301593443878125</v>
       </c>
       <c r="L204" t="n">
-        <v>1.77718049705963</v>
+        <v>1.777100556329795</v>
       </c>
       <c r="M204" t="n">
-        <v>0.9212457741746707</v>
+        <v>0.9213059997920803</v>
       </c>
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr"/>
@@ -9213,25 +9437,25 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="H205" t="n">
-        <v>84.3517729182</v>
+        <v>84.3591607421</v>
       </c>
       <c r="I205" t="n">
-        <v>0.3059334566830394</v>
+        <v>0.3059810962021793</v>
       </c>
       <c r="J205" t="n">
-        <v>0.2821408712670572</v>
+        <v>0.2821215056088702</v>
       </c>
       <c r="K205" t="n">
-        <v>0.4119256720499035</v>
+        <v>0.4118973981889504</v>
       </c>
       <c r="L205" t="n">
-        <v>1.329726042099022</v>
+        <v>1.329840686795488</v>
       </c>
       <c r="M205" t="n">
-        <v>1.258348285851075</v>
+        <v>1.258261915015561</v>
       </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
@@ -9305,25 +9529,25 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="n">
-        <v>81.0320842883</v>
+        <v>81.04097752529999</v>
       </c>
       <c r="H207" t="n">
-        <v>84.3517729182</v>
+        <v>84.3591607421</v>
       </c>
       <c r="I207" t="n">
-        <v>0.2880795244198873</v>
+        <v>0.2881018368418719</v>
       </c>
       <c r="J207" t="n">
-        <v>0.2913243699270774</v>
+        <v>0.2912694813689953</v>
       </c>
       <c r="K207" t="n">
-        <v>0.4205961056530354</v>
+        <v>0.4206286817891329</v>
       </c>
       <c r="L207" t="n">
-        <v>1.284834678912697</v>
+        <v>1.284934192314748</v>
       </c>
       <c r="M207" t="n">
-        <v>1.294569215434268</v>
+        <v>1.294437125896119</v>
       </c>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
@@ -9344,25 +9568,25 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="n">
-        <v>84.3517729182</v>
+        <v>84.3591607421</v>
       </c>
       <c r="H208" t="n">
-        <v>80.77975022850001</v>
+        <v>80.7883892947</v>
       </c>
       <c r="I208" t="n">
-        <v>0.5230181523556445</v>
+        <v>0.5229840913976792</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1938950600180307</v>
+        <v>0.1939089059359028</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2830867876263248</v>
+        <v>0.283107002666418</v>
       </c>
       <c r="L208" t="n">
-        <v>1.852141244693258</v>
+        <v>1.852059276859455</v>
       </c>
       <c r="M208" t="n">
-        <v>0.8647719676804169</v>
+        <v>0.8648337204741263</v>
       </c>
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr"/>
@@ -9383,25 +9607,25 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="n">
-        <v>80.77975022850001</v>
+        <v>80.7883892947</v>
       </c>
       <c r="H209" t="n">
-        <v>84.3517729182</v>
+        <v>84.3591607421</v>
       </c>
       <c r="I209" t="n">
-        <v>0.2849087887431192</v>
+        <v>0.2849282285338331</v>
       </c>
       <c r="J209" t="n">
-        <v>0.299124379691927</v>
+        <v>0.2990765578067706</v>
       </c>
       <c r="K209" t="n">
-        <v>0.415966831564954</v>
+        <v>0.4159952136593963</v>
       </c>
       <c r="L209" t="n">
-        <v>1.270693197794312</v>
+        <v>1.270779899260896</v>
       </c>
       <c r="M209" t="n">
-        <v>1.313339970640735</v>
+        <v>1.313224887079708</v>
       </c>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr"/>
@@ -9422,25 +9646,25 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="n">
-        <v>84.3517729182</v>
+        <v>84.3591607421</v>
       </c>
       <c r="H210" t="n">
-        <v>80.33733306649999</v>
+        <v>80.3461708422</v>
       </c>
       <c r="I210" t="n">
-        <v>0.5387571424184672</v>
+        <v>0.5387161599266302</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1874970965778589</v>
+        <v>0.1875137561273861</v>
       </c>
       <c r="K210" t="n">
-        <v>0.273745761003674</v>
+        <v>0.2737700839459837</v>
       </c>
       <c r="L210" t="n">
-        <v>1.890017188259075</v>
+        <v>1.889918563725875</v>
       </c>
       <c r="M210" t="n">
-        <v>0.8362370507372507</v>
+        <v>0.8363113523281419</v>
       </c>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
@@ -9461,25 +9685,25 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="n">
-        <v>80.33733306649999</v>
+        <v>80.3461708422</v>
       </c>
       <c r="H211" t="n">
-        <v>84.3517729182</v>
+        <v>84.3591607421</v>
       </c>
       <c r="I211" t="n">
-        <v>0.2792341400786176</v>
+        <v>0.2792566626332926</v>
       </c>
       <c r="J211" t="n">
-        <v>0.3130840154066006</v>
+        <v>0.3130286099221002</v>
       </c>
       <c r="K211" t="n">
-        <v>0.4076818445147817</v>
+        <v>0.4077147274446071</v>
       </c>
       <c r="L211" t="n">
-        <v>1.245384264750635</v>
+        <v>1.245484715344485</v>
       </c>
       <c r="M211" t="n">
-        <v>1.346933890734583</v>
+        <v>1.346800557210908</v>
       </c>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr"/>
@@ -9500,25 +9724,25 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="n">
-        <v>84.3517729182</v>
+        <v>84.3591607421</v>
       </c>
       <c r="H212" t="n">
-        <v>79.5307513188</v>
+        <v>79.53995027240001</v>
       </c>
       <c r="I212" t="n">
-        <v>0.5672318892613721</v>
+        <v>0.5671787380013041</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1759219962352145</v>
+        <v>0.1759436024384943</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2568461145034133</v>
+        <v>0.2568776595602016</v>
       </c>
       <c r="L212" t="n">
-        <v>1.95854178228753</v>
+        <v>1.958413873564114</v>
       </c>
       <c r="M212" t="n">
-        <v>0.7846121032090569</v>
+        <v>0.7847084668756845</v>
       </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
@@ -9539,25 +9763,25 @@
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="n">
-        <v>79.5307513188</v>
+        <v>79.53995027240001</v>
       </c>
       <c r="H213" t="n">
-        <v>84.3517729182</v>
+        <v>84.3591607421</v>
       </c>
       <c r="I213" t="n">
-        <v>0.268530775462314</v>
+        <v>0.2685591467584343</v>
       </c>
       <c r="J213" t="n">
-        <v>0.3394142923627077</v>
+        <v>0.3393444989742514</v>
       </c>
       <c r="K213" t="n">
-        <v>0.3920549321749784</v>
+        <v>0.3920963542673142</v>
       </c>
       <c r="L213" t="n">
-        <v>1.19764725856192</v>
+        <v>1.197773794542617</v>
       </c>
       <c r="M213" t="n">
-        <v>1.410297809263102</v>
+        <v>1.410129851190068</v>
       </c>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
@@ -9737,25 +9961,25 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="n">
-        <v>77.91100207540001</v>
+        <v>77.9209220102</v>
       </c>
       <c r="H217" t="n">
-        <v>84.3517729182</v>
+        <v>84.3591607421</v>
       </c>
       <c r="I217" t="n">
-        <v>0.2458294741210514</v>
+        <v>0.2458701282777434</v>
       </c>
       <c r="J217" t="n">
-        <v>0.3952594936622134</v>
+        <v>0.3951594844367511</v>
       </c>
       <c r="K217" t="n">
-        <v>0.358911032216735</v>
+        <v>0.3589703872855054</v>
       </c>
       <c r="L217" t="n">
-        <v>1.096399454579889</v>
+        <v>1.096580772118736</v>
       </c>
       <c r="M217" t="n">
-        <v>1.544689513203375</v>
+        <v>1.544448840595759</v>
       </c>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
@@ -9776,25 +10000,25 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="n">
-        <v>84.1070818697</v>
+        <v>84.11421312580001</v>
       </c>
       <c r="H218" t="n">
-        <v>83.2358186829</v>
+        <v>83.24334700990001</v>
       </c>
       <c r="I218" t="n">
-        <v>0.4267598529404315</v>
+        <v>0.4267559450386213</v>
       </c>
       <c r="J218" t="n">
-        <v>0.2330244500242148</v>
+        <v>0.2330260386021865</v>
       </c>
       <c r="K218" t="n">
-        <v>0.3402156970353537</v>
+        <v>0.3402180163591922</v>
       </c>
       <c r="L218" t="n">
-        <v>1.620495255856648</v>
+        <v>1.620485851475056</v>
       </c>
       <c r="M218" t="n">
-        <v>1.039289047107998</v>
+        <v>1.039296132165751</v>
       </c>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr"/>
@@ -9815,25 +10039,25 @@
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="n">
-        <v>83.2358186829</v>
+        <v>83.24334700990001</v>
       </c>
       <c r="H219" t="n">
-        <v>84.1070818697</v>
+        <v>84.11421312580001</v>
       </c>
       <c r="I219" t="n">
-        <v>0.3660977775289778</v>
+        <v>0.3661209253143544</v>
       </c>
       <c r="J219" t="n">
-        <v>0.2576838302727733</v>
+        <v>0.257674420603921</v>
       </c>
       <c r="K219" t="n">
-        <v>0.376218392198249</v>
+        <v>0.3762046540817246</v>
       </c>
       <c r="L219" t="n">
-        <v>1.474511724785182</v>
+        <v>1.474567430024788</v>
       </c>
       <c r="M219" t="n">
-        <v>1.149269883016569</v>
+        <v>1.149227915893487</v>
       </c>
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr"/>
@@ -9854,31 +10078,33 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="n">
-        <v>84.1070818697</v>
+        <v>84.11421312580001</v>
       </c>
       <c r="H220" t="n">
-        <v>81.8021821273</v>
+        <v>81.81072821559999</v>
       </c>
       <c r="I220" t="n">
-        <v>0.4774458007777013</v>
+        <v>0.477405540798631</v>
       </c>
       <c r="J220" t="n">
-        <v>0.2124204061879263</v>
+        <v>0.2124367720330768</v>
       </c>
       <c r="K220" t="n">
-        <v>0.3101337930343724</v>
+        <v>0.3101576871682922</v>
       </c>
       <c r="L220" t="n">
-        <v>1.742471195367476</v>
+        <v>1.742374309564185</v>
       </c>
       <c r="M220" t="n">
-        <v>0.9473950115981513</v>
+        <v>0.9474680032675226</v>
       </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr"/>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr"/>
+      <c r="A221" t="n">
+        <v>3</v>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Union Berlin</t>
@@ -9889,9 +10115,17 @@
           <t>Hoffenheim</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr"/>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
+      <c r="D221" t="n">
+        <v>2</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
       <c r="G221" t="n">
         <v>81.8021821273</v>
       </c>
@@ -9913,8 +10147,12 @@
       <c r="M221" t="n">
         <v>1.236083556176038</v>
       </c>
-      <c r="N221" t="inlineStr"/>
-      <c r="O221" t="inlineStr"/>
+      <c r="N221" t="n">
+        <v>3</v>
+      </c>
+      <c r="O221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr"/>
@@ -9932,25 +10170,25 @@
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="n">
-        <v>84.1070818697</v>
+        <v>84.11421312580001</v>
       </c>
       <c r="H222" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="I222" t="n">
-        <v>0.4827864866583466</v>
+        <v>0.482743780362325</v>
       </c>
       <c r="J222" t="n">
-        <v>0.2102493956673388</v>
+        <v>0.2102667559502744</v>
       </c>
       <c r="K222" t="n">
-        <v>0.3069641176743147</v>
+        <v>0.3069894636874006</v>
       </c>
       <c r="L222" t="n">
-        <v>1.755323577649355</v>
+        <v>1.755220804774376</v>
       </c>
       <c r="M222" t="n">
-        <v>0.9377123046763312</v>
+        <v>0.9377897315382238</v>
       </c>
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr"/>
@@ -9971,25 +10209,25 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="H223" t="n">
-        <v>84.1070818697</v>
+        <v>84.11421312580001</v>
       </c>
       <c r="I223" t="n">
-        <v>0.3134058512172523</v>
+        <v>0.3134620165310604</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2791033125133121</v>
+        <v>0.2790804810849348</v>
       </c>
       <c r="K223" t="n">
-        <v>0.4074908362694357</v>
+        <v>0.4074575023840049</v>
       </c>
       <c r="L223" t="n">
-        <v>1.347708389921193</v>
+        <v>1.347843551977186</v>
       </c>
       <c r="M223" t="n">
-        <v>1.244800773809372</v>
+        <v>1.244698945638809</v>
       </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr"/>
@@ -10169,25 +10407,25 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="n">
-        <v>80.77975022850001</v>
+        <v>80.7883892947</v>
       </c>
       <c r="H227" t="n">
-        <v>84.1070818697</v>
+        <v>84.11421312580001</v>
       </c>
       <c r="I227" t="n">
-        <v>0.2878667666385083</v>
+        <v>0.2878890093987959</v>
       </c>
       <c r="J227" t="n">
-        <v>0.2918477540692697</v>
+        <v>0.2917930368789622</v>
       </c>
       <c r="K227" t="n">
-        <v>0.420285479292222</v>
+        <v>0.420317953722242</v>
       </c>
       <c r="L227" t="n">
-        <v>1.283885779207747</v>
+        <v>1.28398498191863</v>
       </c>
       <c r="M227" t="n">
-        <v>1.295828741500031</v>
+        <v>1.295697064359129</v>
       </c>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr"/>
@@ -10208,25 +10446,25 @@
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="n">
-        <v>84.1070818697</v>
+        <v>84.11421312580001</v>
       </c>
       <c r="H228" t="n">
-        <v>80.33733306649999</v>
+        <v>80.3461708422</v>
       </c>
       <c r="I228" t="n">
-        <v>0.5297114768884644</v>
+        <v>0.5296608962003055</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1911741963868031</v>
+        <v>0.1911947576421522</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2791143267247326</v>
+        <v>0.2791443461575422</v>
       </c>
       <c r="L228" t="n">
-        <v>1.868248757390126</v>
+        <v>1.868127034758459</v>
       </c>
       <c r="M228" t="n">
-        <v>0.852636915885142</v>
+        <v>0.8527286190839987</v>
       </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr"/>
@@ -10247,25 +10485,25 @@
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="n">
-        <v>80.33733306649999</v>
+        <v>80.3461708422</v>
       </c>
       <c r="H229" t="n">
-        <v>84.1070818697</v>
+        <v>84.11421312580001</v>
       </c>
       <c r="I229" t="n">
-        <v>0.2822699680117429</v>
+        <v>0.2822953538424725</v>
       </c>
       <c r="J229" t="n">
-        <v>0.3056158786911125</v>
+        <v>0.3055534295475177</v>
       </c>
       <c r="K229" t="n">
-        <v>0.4121141532971446</v>
+        <v>0.4121512166100098</v>
       </c>
       <c r="L229" t="n">
-        <v>1.258924057332373</v>
+        <v>1.259037278137427</v>
       </c>
       <c r="M229" t="n">
-        <v>1.328961789370482</v>
+        <v>1.328811505252563</v>
       </c>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr"/>
@@ -10286,25 +10524,25 @@
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="n">
-        <v>84.1070818697</v>
+        <v>84.11421312580001</v>
       </c>
       <c r="H230" t="n">
-        <v>79.5307513188</v>
+        <v>79.53995027240001</v>
       </c>
       <c r="I230" t="n">
-        <v>0.5582868117343833</v>
+        <v>0.5582240170580893</v>
       </c>
       <c r="J230" t="n">
-        <v>0.1795582066120393</v>
+        <v>0.1795837329032157</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2621549816535773</v>
+        <v>0.262192250038695</v>
       </c>
       <c r="L230" t="n">
-        <v>1.937015416856727</v>
+        <v>1.936864301212963</v>
       </c>
       <c r="M230" t="n">
-        <v>0.8008296014896952</v>
+        <v>0.8009434487483422</v>
       </c>
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr"/>
@@ -10378,25 +10616,25 @@
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="n">
-        <v>84.1070818697</v>
+        <v>84.11421312580001</v>
       </c>
       <c r="H232" t="n">
-        <v>78.0501765163</v>
+        <v>78.0604017979</v>
       </c>
       <c r="I232" t="n">
-        <v>0.6096217970787285</v>
+        <v>0.609526301317408</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1586903263907607</v>
+        <v>0.1587291458059317</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2316878765305107</v>
+        <v>0.2317445528766603</v>
       </c>
       <c r="L232" t="n">
-        <v>2.060553267766696</v>
+        <v>2.060323456828884</v>
       </c>
       <c r="M232" t="n">
-        <v>0.707758855702793</v>
+        <v>0.7079319902944554</v>
       </c>
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr"/>
@@ -10417,31 +10655,33 @@
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="n">
-        <v>78.0501765163</v>
+        <v>78.0604017979</v>
       </c>
       <c r="H233" t="n">
-        <v>84.1070818697</v>
+        <v>84.11421312580001</v>
       </c>
       <c r="I233" t="n">
-        <v>0.251202460280717</v>
+        <v>0.2512504840174427</v>
       </c>
       <c r="J233" t="n">
-        <v>0.3820419477094363</v>
+        <v>0.3819238093170909</v>
       </c>
       <c r="K233" t="n">
-        <v>0.3667555920098468</v>
+        <v>0.3668257066654664</v>
       </c>
       <c r="L233" t="n">
-        <v>1.120362972851998</v>
+        <v>1.120577158717794</v>
       </c>
       <c r="M233" t="n">
-        <v>1.512881435138156</v>
+        <v>1.512597134616739</v>
       </c>
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr"/>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr"/>
+      <c r="A234" t="n">
+        <v>8</v>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Hoffenheim</t>
@@ -10452,9 +10692,17 @@
           <t>Heidenheim</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr"/>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
+      <c r="D234" t="n">
+        <v>3</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
       <c r="G234" t="n">
         <v>84.1070818697</v>
       </c>
@@ -10476,8 +10724,12 @@
       <c r="M234" t="n">
         <v>0.6991993743258332</v>
       </c>
-      <c r="N234" t="inlineStr"/>
-      <c r="O234" t="inlineStr"/>
+      <c r="N234" t="n">
+        <v>3</v>
+      </c>
+      <c r="O234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -10548,25 +10800,25 @@
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="n">
-        <v>83.2358186829</v>
+        <v>83.24334700990001</v>
       </c>
       <c r="H236" t="n">
-        <v>81.8021821273</v>
+        <v>81.81072821559999</v>
       </c>
       <c r="I236" t="n">
-        <v>0.4452892148290816</v>
+        <v>0.4452639275431339</v>
       </c>
       <c r="J236" t="n">
-        <v>0.2254921890938693</v>
+        <v>0.2255024684784009</v>
       </c>
       <c r="K236" t="n">
-        <v>0.3292185960770491</v>
+        <v>0.3292336039784652</v>
       </c>
       <c r="L236" t="n">
-        <v>1.665086240564294</v>
+        <v>1.665025386607867</v>
       </c>
       <c r="M236" t="n">
-        <v>1.005695163358657</v>
+        <v>1.005741009413668</v>
       </c>
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr"/>
@@ -10587,25 +10839,25 @@
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="n">
-        <v>81.8021821273</v>
+        <v>81.81072821559999</v>
       </c>
       <c r="H237" t="n">
-        <v>83.2358186829</v>
+        <v>83.24334700990001</v>
       </c>
       <c r="I237" t="n">
-        <v>0.3458061103840714</v>
+        <v>0.3458500510678837</v>
       </c>
       <c r="J237" t="n">
-        <v>0.2659324754536295</v>
+        <v>0.2659146133870391</v>
       </c>
       <c r="K237" t="n">
-        <v>0.388261414162299</v>
+        <v>0.3882353355450772</v>
       </c>
       <c r="L237" t="n">
-        <v>1.425679745314513</v>
+        <v>1.425785488748728</v>
       </c>
       <c r="M237" t="n">
-        <v>1.186058840523188</v>
+        <v>1.185979175706195</v>
       </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr"/>
@@ -10626,25 +10878,25 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="n">
-        <v>83.2358186829</v>
+        <v>83.24334700990001</v>
       </c>
       <c r="H238" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="I238" t="n">
-        <v>0.4505803572609934</v>
+        <v>0.4505526222870788</v>
       </c>
       <c r="J238" t="n">
-        <v>0.2233413181865881</v>
+        <v>0.2233525925662282</v>
       </c>
       <c r="K238" t="n">
-        <v>0.3260783245524186</v>
+        <v>0.3260947851466931</v>
       </c>
       <c r="L238" t="n">
-        <v>1.677819396335399</v>
+        <v>1.677752652007929</v>
       </c>
       <c r="M238" t="n">
-        <v>0.9961022791121829</v>
+        <v>0.9961525628453776</v>
       </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr"/>
@@ -10665,25 +10917,25 @@
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="H239" t="n">
-        <v>83.2358186829</v>
+        <v>83.24334700990001</v>
       </c>
       <c r="I239" t="n">
-        <v>0.3407894399485203</v>
+        <v>0.3408353322695591</v>
       </c>
       <c r="J239" t="n">
-        <v>0.2679717723786503</v>
+        <v>0.2679531169635939</v>
       </c>
       <c r="K239" t="n">
-        <v>0.3912387876728294</v>
+        <v>0.391211550766847</v>
       </c>
       <c r="L239" t="n">
-        <v>1.41360710751839</v>
+        <v>1.413717547575524</v>
       </c>
       <c r="M239" t="n">
-        <v>1.19515410480878</v>
+        <v>1.195070901657629</v>
       </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr"/>
@@ -10704,25 +10956,25 @@
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="n">
-        <v>83.2358186829</v>
+        <v>83.24334700990001</v>
       </c>
       <c r="H240" t="n">
-        <v>81.0320842883</v>
+        <v>81.04097752529999</v>
       </c>
       <c r="I240" t="n">
-        <v>0.4726002512600033</v>
+        <v>0.4725623734744402</v>
       </c>
       <c r="J240" t="n">
-        <v>0.2143901417642263</v>
+        <v>0.2144055392380325</v>
       </c>
       <c r="K240" t="n">
-        <v>0.3130096069757704</v>
+        <v>0.3130320872875274</v>
       </c>
       <c r="L240" t="n">
-        <v>1.73081036075578</v>
+        <v>1.730719207710848</v>
       </c>
       <c r="M240" t="n">
-        <v>0.9561800322684493</v>
+        <v>0.9562487050016248</v>
       </c>
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr"/>
@@ -10849,25 +11101,25 @@
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="n">
-        <v>80.77975022850001</v>
+        <v>80.7883892947</v>
       </c>
       <c r="H243" t="n">
-        <v>83.2358186829</v>
+        <v>83.24334700990001</v>
       </c>
       <c r="I243" t="n">
-        <v>0.3122911371588194</v>
+        <v>0.3123358193641203</v>
       </c>
       <c r="J243" t="n">
-        <v>0.279556448309423</v>
+        <v>0.2795382848113332</v>
       </c>
       <c r="K243" t="n">
-        <v>0.4081524145317575</v>
+        <v>0.4081258958245465</v>
       </c>
       <c r="L243" t="n">
-        <v>1.345025826008216</v>
+        <v>1.345133353916907</v>
       </c>
       <c r="M243" t="n">
-        <v>1.246821759460027</v>
+        <v>1.246740750258546</v>
       </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr"/>
@@ -10926,7 +11178,9 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr"/>
+      <c r="A245" t="n">
+        <v>4</v>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Augsburg</t>
@@ -10937,9 +11191,17 @@
           <t>Mainz 05</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr"/>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
+      <c r="D245" t="n">
+        <v>1</v>
+      </c>
+      <c r="E245" t="n">
+        <v>4</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
       <c r="G245" t="n">
         <v>80.33733306649999</v>
       </c>
@@ -10961,8 +11223,12 @@
       <c r="M245" t="n">
         <v>1.272094436583997</v>
       </c>
-      <c r="N245" t="inlineStr"/>
-      <c r="O245" t="inlineStr"/>
+      <c r="N245" t="n">
+        <v>0</v>
+      </c>
+      <c r="O245" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -11086,25 +11352,25 @@
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="n">
-        <v>83.2358186829</v>
+        <v>83.24334700990001</v>
       </c>
       <c r="H248" t="n">
-        <v>78.0501765163</v>
+        <v>78.0604017979</v>
       </c>
       <c r="I248" t="n">
-        <v>0.5784168867236487</v>
+        <v>0.5783334240594326</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1713752492993298</v>
+        <v>0.1714091772116128</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2502078639770215</v>
+        <v>0.2502573987289546</v>
       </c>
       <c r="L248" t="n">
-        <v>1.985458524147968</v>
+        <v>1.985257670907252</v>
       </c>
       <c r="M248" t="n">
-        <v>0.7643336118750108</v>
+        <v>0.7644849303637931</v>
       </c>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr"/>
@@ -11125,25 +11391,25 @@
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="n">
-        <v>78.0501765163</v>
+        <v>78.0604017979</v>
       </c>
       <c r="H249" t="n">
-        <v>83.2358186829</v>
+        <v>83.24334700990001</v>
       </c>
       <c r="I249" t="n">
-        <v>0.2629596719366669</v>
+        <v>0.2630008703810647</v>
       </c>
       <c r="J249" t="n">
-        <v>0.3531192070357993</v>
+        <v>0.3530178588625809</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3839211210275337</v>
+        <v>0.3839812707563545</v>
       </c>
       <c r="L249" t="n">
-        <v>1.172800136837534</v>
+        <v>1.172983881899548</v>
       </c>
       <c r="M249" t="n">
-        <v>1.443278742134932</v>
+        <v>1.443034847344097</v>
       </c>
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr"/>
@@ -11164,25 +11430,25 @@
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr"/>
       <c r="G250" t="n">
-        <v>83.2358186829</v>
+        <v>83.24334700990001</v>
       </c>
       <c r="H250" t="n">
-        <v>77.91100207540001</v>
+        <v>77.9209220102</v>
       </c>
       <c r="I250" t="n">
-        <v>0.5832574372221803</v>
+        <v>0.583184845714159</v>
       </c>
       <c r="J250" t="n">
-        <v>0.1694075458446422</v>
+        <v>0.1694370545877402</v>
       </c>
       <c r="K250" t="n">
-        <v>0.2473350169331776</v>
+        <v>0.2473780996981008</v>
       </c>
       <c r="L250" t="n">
-        <v>1.997107328599718</v>
+        <v>1.996932636840578</v>
       </c>
       <c r="M250" t="n">
-        <v>0.7555576544671041</v>
+        <v>0.7556892634613215</v>
       </c>
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr"/>
@@ -11203,25 +11469,25 @@
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="n">
-        <v>77.91100207540001</v>
+        <v>77.9209220102</v>
       </c>
       <c r="H251" t="n">
-        <v>83.2358186829</v>
+        <v>83.24334700990001</v>
       </c>
       <c r="I251" t="n">
-        <v>0.2610338738142247</v>
+        <v>0.2610710820631865</v>
       </c>
       <c r="J251" t="n">
-        <v>0.3578566704170075</v>
+        <v>0.3577651381245611</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3811094557687679</v>
+        <v>0.3811637798122524</v>
       </c>
       <c r="L251" t="n">
-        <v>1.164211077211442</v>
+        <v>1.164377026001812</v>
       </c>
       <c r="M251" t="n">
-        <v>1.45467946701979</v>
+        <v>1.454459194185936</v>
       </c>
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr"/>
@@ -11242,25 +11508,25 @@
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="n">
-        <v>81.8021821273</v>
+        <v>81.81072821559999</v>
       </c>
       <c r="H252" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="I252" t="n">
-        <v>0.3985948077670203</v>
+        <v>0.3986041987766034</v>
       </c>
       <c r="J252" t="n">
-        <v>0.2444736553792601</v>
+        <v>0.2444698378956897</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3569315368537196</v>
+        <v>0.3569259633277069</v>
       </c>
       <c r="L252" t="n">
-        <v>1.552715960154781</v>
+        <v>1.552738559657517</v>
       </c>
       <c r="M252" t="n">
-        <v>1.0903525029915</v>
+        <v>1.090335477014776</v>
       </c>
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr"/>
@@ -11281,25 +11547,25 @@
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="H253" t="n">
-        <v>81.8021821273</v>
+        <v>81.81072821559999</v>
       </c>
       <c r="I253" t="n">
-        <v>0.3881790511329769</v>
+        <v>0.3881930351637408</v>
       </c>
       <c r="J253" t="n">
-        <v>0.2487077027914728</v>
+        <v>0.2487020182261216</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3631132460755503</v>
+        <v>0.3631049466101375</v>
       </c>
       <c r="L253" t="n">
-        <v>1.527650399474481</v>
+        <v>1.52768405210136</v>
       </c>
       <c r="M253" t="n">
-        <v>1.109236354449969</v>
+        <v>1.109211001288502</v>
       </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr"/>
@@ -11320,25 +11586,25 @@
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="n">
-        <v>81.8021821273</v>
+        <v>81.81072821559999</v>
       </c>
       <c r="H254" t="n">
-        <v>81.0320842883</v>
+        <v>81.04097752529999</v>
       </c>
       <c r="I254" t="n">
-        <v>0.4200163359148892</v>
+        <v>0.4200161512930731</v>
       </c>
       <c r="J254" t="n">
-        <v>0.2357657171077686</v>
+        <v>0.2357657921572874</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3442179469773421</v>
+        <v>0.3442180565496396</v>
       </c>
       <c r="L254" t="n">
-        <v>1.60426695472201</v>
+        <v>1.604266510428859</v>
       </c>
       <c r="M254" t="n">
-        <v>1.051515098300648</v>
+        <v>1.051515433021502</v>
       </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr"/>
@@ -11359,25 +11625,25 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="n">
-        <v>81.0320842883</v>
+        <v>81.04097752529999</v>
       </c>
       <c r="H255" t="n">
-        <v>81.8021821273</v>
+        <v>81.81072821559999</v>
       </c>
       <c r="I255" t="n">
-        <v>0.366529401893989</v>
+        <v>0.3665527162337919</v>
       </c>
       <c r="J255" t="n">
-        <v>0.2575083732138256</v>
+        <v>0.257498895839922</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3759622248921853</v>
+        <v>0.375948387926286</v>
       </c>
       <c r="L255" t="n">
-        <v>1.475550430574152</v>
+        <v>1.475606536627662</v>
       </c>
       <c r="M255" t="n">
-        <v>1.148487344533662</v>
+        <v>1.148445075446052</v>
       </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr"/>
@@ -11398,25 +11664,25 @@
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="n">
-        <v>81.8021821273</v>
+        <v>81.81072821559999</v>
       </c>
       <c r="H256" t="n">
-        <v>80.77975022850001</v>
+        <v>80.7883892947</v>
       </c>
       <c r="I256" t="n">
-        <v>0.428822090889646</v>
+        <v>0.4288307988518746</v>
       </c>
       <c r="J256" t="n">
-        <v>0.232186141914778</v>
+        <v>0.2321826020927339</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3389917671955759</v>
+        <v>0.3389865990553915</v>
       </c>
       <c r="L256" t="n">
-        <v>1.625458039864514</v>
+        <v>1.625478995611015</v>
       </c>
       <c r="M256" t="n">
-        <v>1.03555019293991</v>
+        <v>1.035534405333593</v>
       </c>
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr"/>
@@ -11437,25 +11703,25 @@
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="n">
-        <v>80.77975022850001</v>
+        <v>80.7883892947</v>
       </c>
       <c r="H257" t="n">
-        <v>81.8021821273</v>
+        <v>81.81072821559999</v>
       </c>
       <c r="I257" t="n">
-        <v>0.3578691971749657</v>
+        <v>0.3578835938898654</v>
       </c>
       <c r="J257" t="n">
-        <v>0.2610287816361928</v>
+        <v>0.2610229293130629</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3811020211888415</v>
+        <v>0.3810934767970717</v>
       </c>
       <c r="L257" t="n">
-        <v>1.454709612713738</v>
+        <v>1.454744258466668</v>
       </c>
       <c r="M257" t="n">
-        <v>1.16418836609742</v>
+        <v>1.16416226473626</v>
       </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr"/>
@@ -11476,25 +11742,25 @@
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="n">
-        <v>81.8021821273</v>
+        <v>81.81072821559999</v>
       </c>
       <c r="H258" t="n">
-        <v>80.33733306649999</v>
+        <v>80.3461708422</v>
       </c>
       <c r="I258" t="n">
-        <v>0.4443672590300535</v>
+        <v>0.4443690281449982</v>
       </c>
       <c r="J258" t="n">
-        <v>0.225866967873962</v>
+        <v>0.2258662487215455</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3297657730959845</v>
+        <v>0.3297647231334563</v>
       </c>
       <c r="L258" t="n">
-        <v>1.662867550186145</v>
+        <v>1.662871807568451</v>
       </c>
       <c r="M258" t="n">
-        <v>1.00736667671787</v>
+        <v>1.007363469298093</v>
       </c>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr"/>
@@ -11515,25 +11781,25 @@
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="inlineStr"/>
       <c r="G259" t="n">
-        <v>80.33733306649999</v>
+        <v>80.3461708422</v>
       </c>
       <c r="H259" t="n">
-        <v>81.8021821273</v>
+        <v>81.81072821559999</v>
       </c>
       <c r="I259" t="n">
-        <v>0.3429095373039452</v>
+        <v>0.342930305858732</v>
       </c>
       <c r="J259" t="n">
-        <v>0.2671099441853881</v>
+        <v>0.2671015016834423</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3899805185106667</v>
+        <v>0.3899681924578258</v>
       </c>
       <c r="L259" t="n">
-        <v>1.418709130422502</v>
+        <v>1.418759110034022</v>
       </c>
       <c r="M259" t="n">
-        <v>1.191310351066831</v>
+        <v>1.191272697508153</v>
       </c>
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr"/>
@@ -11607,25 +11873,25 @@
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="n">
-        <v>79.5307513188</v>
+        <v>79.53995027240001</v>
       </c>
       <c r="H261" t="n">
-        <v>81.8021821273</v>
+        <v>81.81072821559999</v>
       </c>
       <c r="I261" t="n">
-        <v>0.3164380005356986</v>
+        <v>0.3164695455525419</v>
       </c>
       <c r="J261" t="n">
-        <v>0.2778707314895534</v>
+        <v>0.2778579083119749</v>
       </c>
       <c r="K261" t="n">
-        <v>0.4056912679747479</v>
+        <v>0.4056725461354833</v>
       </c>
       <c r="L261" t="n">
-        <v>1.355005269581844</v>
+        <v>1.355081182793109</v>
       </c>
       <c r="M261" t="n">
-        <v>1.239303462443408</v>
+        <v>1.239246271071408</v>
       </c>
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr"/>
@@ -11646,25 +11912,25 @@
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="n">
-        <v>81.8021821273</v>
+        <v>81.81072821559999</v>
       </c>
       <c r="H262" t="n">
-        <v>78.0501765163</v>
+        <v>78.0604017979</v>
       </c>
       <c r="I262" t="n">
-        <v>0.5257971959077076</v>
+        <v>0.5257495603242217</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1927653675171921</v>
+        <v>0.1927847315755196</v>
       </c>
       <c r="K262" t="n">
-        <v>0.2814374365751004</v>
+        <v>0.2814657081002587</v>
       </c>
       <c r="L262" t="n">
-        <v>1.858829024298223</v>
+        <v>1.858714389072924</v>
       </c>
       <c r="M262" t="n">
-        <v>0.8597335391266765</v>
+        <v>0.8598199028268176</v>
       </c>
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr"/>
@@ -11738,25 +12004,25 @@
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="n">
-        <v>81.8021821273</v>
+        <v>81.81072821559999</v>
       </c>
       <c r="H264" t="n">
-        <v>77.91100207540001</v>
+        <v>77.9209220102</v>
       </c>
       <c r="I264" t="n">
-        <v>0.5307517758134265</v>
+        <v>0.5307150578175984</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1907513106449486</v>
+        <v>0.1907662366595129</v>
       </c>
       <c r="K264" t="n">
-        <v>0.278496913541625</v>
+        <v>0.2785187055228888</v>
       </c>
       <c r="L264" t="n">
-        <v>1.870752240981905</v>
+        <v>1.870663878975684</v>
       </c>
       <c r="M264" t="n">
-        <v>0.8507508454764708</v>
+        <v>0.8508174155014274</v>
       </c>
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr"/>
@@ -11777,25 +12043,25 @@
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="n">
-        <v>77.91100207540001</v>
+        <v>77.9209220102</v>
       </c>
       <c r="H265" t="n">
-        <v>81.8021821273</v>
+        <v>81.81072821559999</v>
       </c>
       <c r="I265" t="n">
-        <v>0.2795612073450714</v>
+        <v>0.2795832890624521</v>
       </c>
       <c r="J265" t="n">
-        <v>0.3122794299311243</v>
+        <v>0.3122251089063678</v>
       </c>
       <c r="K265" t="n">
-        <v>0.4081593627238042</v>
+        <v>0.40819160203118</v>
       </c>
       <c r="L265" t="n">
-        <v>1.246842984759018</v>
+        <v>1.246941469218536</v>
       </c>
       <c r="M265" t="n">
-        <v>1.344997652517177</v>
+        <v>1.344866928750283</v>
       </c>
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr"/>
@@ -11869,25 +12135,25 @@
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr"/>
       <c r="G267" t="n">
-        <v>81.0320842883</v>
+        <v>81.04097752529999</v>
       </c>
       <c r="H267" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="I267" t="n">
-        <v>0.3715114655393271</v>
+        <v>0.3715326554466954</v>
       </c>
       <c r="J267" t="n">
-        <v>0.2554831440897044</v>
+        <v>0.2554745303062214</v>
       </c>
       <c r="K267" t="n">
-        <v>0.3730053903709684</v>
+        <v>0.3729928142470831</v>
       </c>
       <c r="L267" t="n">
-        <v>1.48753978698895</v>
+        <v>1.48759078058717</v>
       </c>
       <c r="M267" t="n">
-        <v>1.139454822640082</v>
+        <v>1.139416405165747</v>
       </c>
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr"/>
@@ -11961,25 +12227,25 @@
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr"/>
       <c r="G269" t="n">
-        <v>80.77975022850001</v>
+        <v>80.7883892947</v>
       </c>
       <c r="H269" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="I269" t="n">
-        <v>0.3628009638662508</v>
+        <v>0.3628132137875651</v>
       </c>
       <c r="J269" t="n">
-        <v>0.2590239984283534</v>
+        <v>0.2590190187855426</v>
       </c>
       <c r="K269" t="n">
-        <v>0.3781750377053959</v>
+        <v>0.3781677674268923</v>
       </c>
       <c r="L269" t="n">
-        <v>1.466577929304148</v>
+        <v>1.466607408789588</v>
       </c>
       <c r="M269" t="n">
-        <v>1.155247032990456</v>
+        <v>1.15522482378352</v>
       </c>
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr"/>
@@ -12000,25 +12266,25 @@
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="H270" t="n">
-        <v>80.33733306649999</v>
+        <v>80.3461708422</v>
       </c>
       <c r="I270" t="n">
-        <v>0.4388799860663677</v>
+        <v>0.4388842245476987</v>
       </c>
       <c r="J270" t="n">
-        <v>0.2280975666396879</v>
+        <v>0.2280958436797973</v>
       </c>
       <c r="K270" t="n">
-        <v>0.3330224472939443</v>
+        <v>0.3330199317725041</v>
       </c>
       <c r="L270" t="n">
-        <v>1.649662405493048</v>
+        <v>1.6496726054156</v>
       </c>
       <c r="M270" t="n">
-        <v>1.017315147213008</v>
+        <v>1.017307462811896</v>
       </c>
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr"/>
@@ -12039,25 +12305,25 @@
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="n">
-        <v>80.33733306649999</v>
+        <v>80.3461708422</v>
       </c>
       <c r="H271" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="I271" t="n">
-        <v>0.3477467911931326</v>
+        <v>0.3477655066374395</v>
       </c>
       <c r="J271" t="n">
-        <v>0.2651435808157998</v>
+        <v>0.26513597291161</v>
       </c>
       <c r="K271" t="n">
-        <v>0.3871096279910676</v>
+        <v>0.3870985204509506</v>
       </c>
       <c r="L271" t="n">
-        <v>1.430350001570465</v>
+        <v>1.430395040363269</v>
       </c>
       <c r="M271" t="n">
-        <v>1.182540370438467</v>
+        <v>1.18250643918578</v>
       </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr"/>
@@ -12131,25 +12397,25 @@
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr"/>
       <c r="G273" t="n">
-        <v>79.5307513188</v>
+        <v>79.53995027240001</v>
       </c>
       <c r="H273" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="I273" t="n">
-        <v>0.3210843040362794</v>
+        <v>0.32111398886356</v>
       </c>
       <c r="J273" t="n">
-        <v>0.2759819902291548</v>
+        <v>0.2759699232261951</v>
       </c>
       <c r="K273" t="n">
-        <v>0.4029337057345659</v>
+        <v>0.4029160879102449</v>
       </c>
       <c r="L273" t="n">
-        <v>1.366186617843404</v>
+        <v>1.366258054500925</v>
       </c>
       <c r="M273" t="n">
-        <v>1.23087967642203</v>
+        <v>1.23082585758883</v>
       </c>
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr"/>
@@ -12170,25 +12436,25 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="H274" t="n">
-        <v>78.0501765163</v>
+        <v>78.0604017979</v>
       </c>
       <c r="I274" t="n">
-        <v>0.5202458827280929</v>
+        <v>0.5202007057448813</v>
       </c>
       <c r="J274" t="n">
-        <v>0.1950219988910192</v>
+        <v>0.1950403635183409</v>
       </c>
       <c r="K274" t="n">
-        <v>0.284732118380888</v>
+        <v>0.2847589307367778</v>
       </c>
       <c r="L274" t="n">
-        <v>1.845469766565167</v>
+        <v>1.845361047971422</v>
       </c>
       <c r="M274" t="n">
-        <v>0.8697981150539456</v>
+        <v>0.8698800212918005</v>
       </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr"/>
@@ -12262,25 +12528,25 @@
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr"/>
       <c r="G276" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="H276" t="n">
-        <v>77.91100207540001</v>
+        <v>77.9209220102</v>
       </c>
       <c r="I276" t="n">
-        <v>0.5252060888747889</v>
+        <v>0.5251718302744061</v>
       </c>
       <c r="J276" t="n">
-        <v>0.1930056549289476</v>
+        <v>0.1930195811892658</v>
       </c>
       <c r="K276" t="n">
-        <v>0.2817882561962634</v>
+        <v>0.2818085885363281</v>
       </c>
       <c r="L276" t="n">
-        <v>1.85740652282063</v>
+        <v>1.857324079359546</v>
       </c>
       <c r="M276" t="n">
-        <v>0.8608052209831061</v>
+        <v>0.8608673321041256</v>
       </c>
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr"/>
@@ -12301,31 +12567,33 @@
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="n">
-        <v>77.91100207540001</v>
+        <v>77.9209220102</v>
       </c>
       <c r="H277" t="n">
-        <v>81.6524046208</v>
+        <v>81.6610183259</v>
       </c>
       <c r="I277" t="n">
-        <v>0.2814216292243865</v>
+        <v>0.2814426957107809</v>
       </c>
       <c r="J277" t="n">
-        <v>0.307702792108009</v>
+        <v>0.3076509685514791</v>
       </c>
       <c r="K277" t="n">
-        <v>0.4108755786676044</v>
+        <v>0.41090633573774</v>
       </c>
       <c r="L277" t="n">
-        <v>1.255140466340764</v>
+        <v>1.255234422870083</v>
       </c>
       <c r="M277" t="n">
-        <v>1.333983954991631</v>
+        <v>1.333859241392177</v>
       </c>
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr"/>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr"/>
+      <c r="A278" t="n">
+        <v>3</v>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Wolfsburg</t>
@@ -12336,9 +12604,17 @@
           <t>Köln</t>
         </is>
       </c>
-      <c r="D278" t="inlineStr"/>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
+      <c r="D278" t="n">
+        <v>3</v>
+      </c>
+      <c r="E278" t="n">
+        <v>3</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
       <c r="G278" t="n">
         <v>81.0320842883</v>
       </c>
@@ -12360,8 +12636,12 @@
       <c r="M278" t="n">
         <v>1.085893002079678</v>
       </c>
-      <c r="N278" t="inlineStr"/>
-      <c r="O278" t="inlineStr"/>
+      <c r="N278" t="n">
+        <v>1</v>
+      </c>
+      <c r="O278" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr"/>
@@ -12379,25 +12659,25 @@
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr"/>
       <c r="G279" t="n">
-        <v>80.77975022850001</v>
+        <v>80.7883892947</v>
       </c>
       <c r="H279" t="n">
-        <v>81.0320842883</v>
+        <v>81.04097752529999</v>
       </c>
       <c r="I279" t="n">
-        <v>0.3835255822207674</v>
+        <v>0.3835286690988455</v>
       </c>
       <c r="J279" t="n">
-        <v>0.2505993568208262</v>
+        <v>0.2505981019923392</v>
       </c>
       <c r="K279" t="n">
-        <v>0.3658750609584063</v>
+        <v>0.3658732289088152</v>
       </c>
       <c r="L279" t="n">
-        <v>1.516451807620709</v>
+        <v>1.516459236205352</v>
       </c>
       <c r="M279" t="n">
-        <v>1.117673131420885</v>
+        <v>1.117667534885833</v>
       </c>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr"/>
@@ -12418,25 +12698,25 @@
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="inlineStr"/>
       <c r="G280" t="n">
-        <v>81.0320842883</v>
+        <v>81.04097752529999</v>
       </c>
       <c r="H280" t="n">
-        <v>80.33733306649999</v>
+        <v>80.3461708422</v>
       </c>
       <c r="I280" t="n">
-        <v>0.4163268035537285</v>
+        <v>0.4163410777473897</v>
       </c>
       <c r="J280" t="n">
-        <v>0.2372655270106794</v>
+        <v>0.237259724492931</v>
       </c>
       <c r="K280" t="n">
-        <v>0.346407669435592</v>
+        <v>0.3463991977596793</v>
       </c>
       <c r="L280" t="n">
-        <v>1.595388080096777</v>
+        <v>1.595422431001848</v>
       </c>
       <c r="M280" t="n">
-        <v>1.05820425046763</v>
+        <v>1.058178371238472</v>
       </c>
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr"/>
@@ -12510,32 +12790,32 @@
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr"/>
       <c r="G282" t="n">
-        <v>81.0320842883</v>
+        <v>81.04097752529999</v>
       </c>
       <c r="H282" t="n">
-        <v>79.5307513188</v>
+        <v>79.53995027240001</v>
       </c>
       <c r="I282" t="n">
-        <v>0.444567613661951</v>
+        <v>0.4445693778830705</v>
       </c>
       <c r="J282" t="n">
-        <v>0.2257855229016459</v>
+        <v>0.2257848057385892</v>
       </c>
       <c r="K282" t="n">
-        <v>0.329646863436403</v>
+        <v>0.3296458163783403</v>
       </c>
       <c r="L282" t="n">
-        <v>1.663349704422256</v>
+        <v>1.663353950027552</v>
       </c>
       <c r="M282" t="n">
-        <v>1.007003432141341</v>
+        <v>1.007000233594108</v>
       </c>
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -12548,14 +12828,14 @@
         </is>
       </c>
       <c r="D283" t="n">
+        <v>0</v>
+      </c>
+      <c r="E283" t="n">
         <v>1</v>
       </c>
-      <c r="E283" t="n">
-        <v>0</v>
-      </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G283" t="n">
@@ -12580,10 +12860,10 @@
         <v>1.195316142421975</v>
       </c>
       <c r="N283" t="n">
+        <v>0</v>
+      </c>
+      <c r="O283" t="n">
         <v>3</v>
-      </c>
-      <c r="O283" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -12602,25 +12882,25 @@
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr"/>
       <c r="G284" t="n">
-        <v>81.0320842883</v>
+        <v>81.04097752529999</v>
       </c>
       <c r="H284" t="n">
-        <v>78.0501765163</v>
+        <v>78.0604017979</v>
       </c>
       <c r="I284" t="n">
-        <v>0.4972165178235654</v>
+        <v>0.4971816505206246</v>
       </c>
       <c r="J284" t="n">
-        <v>0.2043835293400141</v>
+        <v>0.2043977030403965</v>
       </c>
       <c r="K284" t="n">
-        <v>0.2983999528364205</v>
+        <v>0.2984206464389789</v>
       </c>
       <c r="L284" t="n">
-        <v>1.790049506307117</v>
+        <v>1.789965598000853</v>
       </c>
       <c r="M284" t="n">
-        <v>0.9115505408564627</v>
+        <v>0.9116137555601682</v>
       </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr"/>
@@ -12641,25 +12921,25 @@
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="n">
-        <v>78.0501765163</v>
+        <v>78.0604017979</v>
       </c>
       <c r="H285" t="n">
-        <v>81.0320842883</v>
+        <v>81.04097752529999</v>
       </c>
       <c r="I285" t="n">
-        <v>0.2931472834546311</v>
+        <v>0.2931988243328015</v>
       </c>
       <c r="J285" t="n">
-        <v>0.287338502660719</v>
+        <v>0.287317551084227</v>
       </c>
       <c r="K285" t="n">
-        <v>0.4195142138846498</v>
+        <v>0.4194836245829714</v>
       </c>
       <c r="L285" t="n">
-        <v>1.298956064248543</v>
+        <v>1.299080097581376</v>
       </c>
       <c r="M285" t="n">
-        <v>1.281529721866807</v>
+        <v>1.281436277835653</v>
       </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr"/>
@@ -12680,25 +12960,25 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr"/>
       <c r="G286" t="n">
-        <v>81.0320842883</v>
+        <v>81.04097752529999</v>
       </c>
       <c r="H286" t="n">
-        <v>77.91100207540001</v>
+        <v>77.9209220102</v>
       </c>
       <c r="I286" t="n">
-        <v>0.5021869908679519</v>
+        <v>0.5021630281671173</v>
       </c>
       <c r="J286" t="n">
-        <v>0.202363011842296</v>
+        <v>0.2023727527775946</v>
       </c>
       <c r="K286" t="n">
-        <v>0.2954499972897521</v>
+        <v>0.2954642190552881</v>
       </c>
       <c r="L286" t="n">
-        <v>1.802010969893608</v>
+        <v>1.80195330355664</v>
       </c>
       <c r="M286" t="n">
-        <v>0.9025390328166401</v>
+        <v>0.9025824773880717</v>
       </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr"/>
@@ -12758,7 +13038,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -12825,25 +13105,25 @@
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr"/>
       <c r="G289" t="n">
-        <v>80.33733306649999</v>
+        <v>80.3461708422</v>
       </c>
       <c r="H289" t="n">
-        <v>80.77975022850001</v>
+        <v>80.7883892947</v>
       </c>
       <c r="I289" t="n">
-        <v>0.3765322527488704</v>
+        <v>0.3765507724899761</v>
       </c>
       <c r="J289" t="n">
-        <v>0.253442173679321</v>
+        <v>0.253434645329278</v>
       </c>
       <c r="K289" t="n">
-        <v>0.3700255735718087</v>
+        <v>0.3700145821807459</v>
       </c>
       <c r="L289" t="n">
-        <v>1.49962233181842</v>
+        <v>1.499666899650674</v>
       </c>
       <c r="M289" t="n">
-        <v>1.130352094609772</v>
+        <v>1.13031851816858</v>
       </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr"/>
@@ -12917,25 +13197,25 @@
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="inlineStr"/>
       <c r="G291" t="n">
-        <v>79.5307513188</v>
+        <v>79.53995027240001</v>
       </c>
       <c r="H291" t="n">
-        <v>80.77975022850001</v>
+        <v>80.7883892947</v>
       </c>
       <c r="I291" t="n">
-        <v>0.3488431105787091</v>
+        <v>0.3488732199812199</v>
       </c>
       <c r="J291" t="n">
-        <v>0.26469792252898</v>
+        <v>0.2646856829344635</v>
       </c>
       <c r="K291" t="n">
-        <v>0.3864589668923108</v>
+        <v>0.3864410970843166</v>
       </c>
       <c r="L291" t="n">
-        <v>1.432988298628438</v>
+        <v>1.433060757027976</v>
       </c>
       <c r="M291" t="n">
-        <v>1.180552734479251</v>
+        <v>1.180498145887707</v>
       </c>
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr"/>
@@ -12956,25 +13236,25 @@
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="inlineStr"/>
       <c r="G292" t="n">
-        <v>80.77975022850001</v>
+        <v>80.7883892947</v>
       </c>
       <c r="H292" t="n">
-        <v>78.0501765163</v>
+        <v>78.0604017979</v>
       </c>
       <c r="I292" t="n">
-        <v>0.4878464755483515</v>
+        <v>0.4878021927962159</v>
       </c>
       <c r="J292" t="n">
-        <v>0.2081924896144912</v>
+        <v>0.2082104907332456</v>
       </c>
       <c r="K292" t="n">
-        <v>0.3039610348371573</v>
+        <v>0.3039873164705385</v>
       </c>
       <c r="L292" t="n">
-        <v>1.767500461482212</v>
+        <v>1.767393894859186</v>
       </c>
       <c r="M292" t="n">
-        <v>0.9285385036806311</v>
+        <v>0.9286187886702753</v>
       </c>
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr"/>
@@ -12995,25 +13275,25 @@
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="n">
-        <v>78.0501765163</v>
+        <v>78.0604017979</v>
       </c>
       <c r="H293" t="n">
-        <v>80.77975022850001</v>
+        <v>80.7883892947</v>
       </c>
       <c r="I293" t="n">
-        <v>0.3006720970029648</v>
+        <v>0.3007320337067882</v>
       </c>
       <c r="J293" t="n">
-        <v>0.2842796353646485</v>
+        <v>0.2842552708508991</v>
       </c>
       <c r="K293" t="n">
-        <v>0.4150482676323867</v>
+        <v>0.4150126954423126</v>
       </c>
       <c r="L293" t="n">
-        <v>1.317064558641281</v>
+        <v>1.317208796562677</v>
       </c>
       <c r="M293" t="n">
-        <v>1.267887173726332</v>
+        <v>1.26777850799501</v>
       </c>
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr"/>
@@ -13034,25 +13314,25 @@
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr"/>
       <c r="G294" t="n">
-        <v>80.77975022850001</v>
+        <v>80.7883892947</v>
       </c>
       <c r="H294" t="n">
-        <v>77.91100207540001</v>
+        <v>77.9209220102</v>
       </c>
       <c r="I294" t="n">
-        <v>0.4928150914821114</v>
+        <v>0.4927816946278248</v>
       </c>
       <c r="J294" t="n">
-        <v>0.2061727270397921</v>
+        <v>0.2061863029968192</v>
       </c>
       <c r="K294" t="n">
-        <v>0.3010121814780964</v>
+        <v>0.301032002375356</v>
       </c>
       <c r="L294" t="n">
-        <v>1.779457455924431</v>
+        <v>1.779377086258831</v>
       </c>
       <c r="M294" t="n">
-        <v>0.9195303625974727</v>
+        <v>0.9195909113658135</v>
       </c>
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr"/>
@@ -13073,25 +13353,25 @@
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="n">
-        <v>77.91100207540001</v>
+        <v>77.9209220102</v>
       </c>
       <c r="H295" t="n">
-        <v>80.77975022850001</v>
+        <v>80.7883892947</v>
       </c>
       <c r="I295" t="n">
-        <v>0.29634230473134</v>
+        <v>0.2963922832929641</v>
       </c>
       <c r="J295" t="n">
-        <v>0.2860397135238455</v>
+        <v>0.2860193970353804</v>
       </c>
       <c r="K295" t="n">
-        <v>0.4176179817448144</v>
+        <v>0.4175883196716554</v>
       </c>
       <c r="L295" t="n">
-        <v>1.306644895938835</v>
+        <v>1.306765169550548</v>
       </c>
       <c r="M295" t="n">
-        <v>1.275737122316351</v>
+        <v>1.275646510777797</v>
       </c>
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr"/>
@@ -13112,25 +13392,25 @@
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr"/>
       <c r="G296" t="n">
-        <v>80.33733306649999</v>
+        <v>80.3461708422</v>
       </c>
       <c r="H296" t="n">
-        <v>79.5307513188</v>
+        <v>79.53995027240001</v>
       </c>
       <c r="I296" t="n">
-        <v>0.4192470927672058</v>
+        <v>0.4192468260926459</v>
       </c>
       <c r="J296" t="n">
-        <v>0.2360784175743066</v>
+        <v>0.2360785259785992</v>
       </c>
       <c r="K296" t="n">
-        <v>0.3446744896584876</v>
+        <v>0.3446746479287549</v>
       </c>
       <c r="L296" t="n">
-        <v>1.602415767960105</v>
+        <v>1.602415126206693</v>
       </c>
       <c r="M296" t="n">
-        <v>1.052909742381407</v>
+        <v>1.052910225864552</v>
       </c>
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr"/>
@@ -13151,25 +13431,25 @@
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr"/>
       <c r="G297" t="n">
-        <v>79.5307513188</v>
+        <v>79.53995027240001</v>
       </c>
       <c r="H297" t="n">
-        <v>80.33733306649999</v>
+        <v>80.3461708422</v>
       </c>
       <c r="I297" t="n">
-        <v>0.3633332565397955</v>
+        <v>0.3633573519334549</v>
       </c>
       <c r="J297" t="n">
-        <v>0.2588076192927661</v>
+        <v>0.2587978244172947</v>
       </c>
       <c r="K297" t="n">
-        <v>0.3778591241674385</v>
+        <v>0.3778448236492503</v>
       </c>
       <c r="L297" t="n">
-        <v>1.467858893786825</v>
+        <v>1.467916879449615</v>
       </c>
       <c r="M297" t="n">
-        <v>1.154281982045737</v>
+        <v>1.154238296901134</v>
       </c>
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr"/>
@@ -13228,7 +13508,9 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="inlineStr"/>
+      <c r="A299" t="n">
+        <v>3</v>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>St. Pauli</t>
@@ -13239,9 +13521,17 @@
           <t>Augsburg</t>
         </is>
       </c>
-      <c r="D299" t="inlineStr"/>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
+      <c r="D299" t="n">
+        <v>2</v>
+      </c>
+      <c r="E299" t="n">
+        <v>1</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
       <c r="G299" t="n">
         <v>78.0501765163</v>
       </c>
@@ -13263,8 +13553,12 @@
       <c r="M299" t="n">
         <v>1.243494057469968</v>
       </c>
-      <c r="N299" t="inlineStr"/>
-      <c r="O299" t="inlineStr"/>
+      <c r="N299" t="n">
+        <v>3</v>
+      </c>
+      <c r="O299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr"/>
@@ -13282,25 +13576,25 @@
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr"/>
       <c r="G300" t="n">
-        <v>80.33733306649999</v>
+        <v>80.3461708422</v>
       </c>
       <c r="H300" t="n">
-        <v>77.91100207540001</v>
+        <v>77.9209220102</v>
       </c>
       <c r="I300" t="n">
-        <v>0.476399509667426</v>
+        <v>0.4763735445636211</v>
       </c>
       <c r="J300" t="n">
-        <v>0.2128457277774691</v>
+        <v>0.212856282697715</v>
       </c>
       <c r="K300" t="n">
-        <v>0.3107547625551049</v>
+        <v>0.3107701727386639</v>
       </c>
       <c r="L300" t="n">
-        <v>1.739953291557383</v>
+        <v>1.739890806429527</v>
       </c>
       <c r="M300" t="n">
-        <v>0.949291945887512</v>
+        <v>0.9493390208318089</v>
       </c>
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr"/>
@@ -13427,31 +13721,33 @@
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr"/>
       <c r="G303" t="n">
-        <v>78.0501765163</v>
+        <v>78.0604017979</v>
       </c>
       <c r="H303" t="n">
-        <v>79.5307513188</v>
+        <v>79.53995027240001</v>
       </c>
       <c r="I303" t="n">
-        <v>0.3394668468528537</v>
+        <v>0.3395128262006323</v>
       </c>
       <c r="J303" t="n">
-        <v>0.2685094118484335</v>
+        <v>0.2684907210566536</v>
       </c>
       <c r="K303" t="n">
-        <v>0.3920237412987129</v>
+        <v>0.3919964527427141</v>
       </c>
       <c r="L303" t="n">
-        <v>1.410424281857274</v>
+        <v>1.410534931344611</v>
       </c>
       <c r="M303" t="n">
-        <v>1.197551976844013</v>
+        <v>1.197468615912675</v>
       </c>
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr"/>
     </row>
     <row r="304">
-      <c r="A304" t="inlineStr"/>
+      <c r="A304" t="n">
+        <v>4</v>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Hamburger SV</t>
@@ -13462,9 +13758,17 @@
           <t>Heidenheim</t>
         </is>
       </c>
-      <c r="D304" t="inlineStr"/>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
+      <c r="D304" t="n">
+        <v>2</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
       <c r="G304" t="n">
         <v>79.5307513188</v>
       </c>
@@ -13486,8 +13790,12 @@
       <c r="M304" t="n">
         <v>1.003269157515029</v>
       </c>
-      <c r="N304" t="inlineStr"/>
-      <c r="O304" t="inlineStr"/>
+      <c r="N304" t="n">
+        <v>3</v>
+      </c>
+      <c r="O304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr"/>
@@ -13505,25 +13813,25 @@
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr"/>
       <c r="G305" t="n">
-        <v>77.91100207540001</v>
+        <v>77.9209220102</v>
       </c>
       <c r="H305" t="n">
-        <v>79.5307513188</v>
+        <v>79.53995027240001</v>
       </c>
       <c r="I305" t="n">
-        <v>0.3348458875909678</v>
+        <v>0.3348814537077522</v>
       </c>
       <c r="J305" t="n">
-        <v>0.2703878505727773</v>
+        <v>0.2703733928017268</v>
       </c>
       <c r="K305" t="n">
-        <v>0.3947662618362549</v>
+        <v>0.3947451534905211</v>
       </c>
       <c r="L305" t="n">
-        <v>1.399303924609158</v>
+        <v>1.399389514613778</v>
       </c>
       <c r="M305" t="n">
-        <v>1.205929813554587</v>
+        <v>1.205865331895701</v>
       </c>
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr"/>
@@ -13544,25 +13852,25 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr"/>
       <c r="G306" t="n">
-        <v>78.0501765163</v>
+        <v>78.0604017979</v>
       </c>
       <c r="H306" t="n">
-        <v>77.91100207540001</v>
+        <v>77.9209220102</v>
       </c>
       <c r="I306" t="n">
-        <v>0.3931051823101198</v>
+        <v>0.3931295292759964</v>
       </c>
       <c r="J306" t="n">
-        <v>0.2467052104430408</v>
+        <v>0.2466953133024405</v>
       </c>
       <c r="K306" t="n">
-        <v>0.3601896072468395</v>
+        <v>0.3601751574215631</v>
       </c>
       <c r="L306" t="n">
-        <v>1.539505154177199</v>
+        <v>1.539563745249552</v>
       </c>
       <c r="M306" t="n">
-        <v>1.100305238575962</v>
+        <v>1.100261097328885</v>
       </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr"/>
@@ -13583,25 +13891,25 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="n">
-        <v>77.91100207540001</v>
+        <v>77.9209220102</v>
       </c>
       <c r="H307" t="n">
-        <v>78.0501765163</v>
+        <v>78.0604017979</v>
       </c>
       <c r="I307" t="n">
-        <v>0.3834718690370393</v>
+        <v>0.3834749577357721</v>
       </c>
       <c r="J307" t="n">
-        <v>0.250621191448358</v>
+        <v>0.2506199358797675</v>
       </c>
       <c r="K307" t="n">
-        <v>0.3659069395146027</v>
+        <v>0.3659051063844605</v>
       </c>
       <c r="L307" t="n">
-        <v>1.51632254662572</v>
+        <v>1.516329979591777</v>
       </c>
       <c r="M307" t="n">
-        <v>1.117770513859677</v>
+        <v>1.117764914023763</v>
       </c>
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr"/>
